--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -750,6 +750,9 @@
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
@@ -761,6 +764,9 @@
       <c r="E8" t="s">
         <v>35</v>
       </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9" t="s">
@@ -772,6 +778,9 @@
       <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
@@ -783,6 +792,9 @@
       <c r="E10" t="s">
         <v>41</v>
       </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
@@ -794,6 +806,9 @@
       <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="30">
       <c r="A12" t="s">
@@ -805,6 +820,9 @@
       <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="30">
       <c r="A13" t="s">
@@ -816,6 +834,9 @@
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="30">
       <c r="A14" t="s">
@@ -827,6 +848,9 @@
       <c r="E14" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="90">
       <c r="A15" t="s">
@@ -838,6 +862,9 @@
       <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -849,6 +876,9 @@
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
@@ -860,6 +890,9 @@
       <c r="E17" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
@@ -871,6 +904,9 @@
       <c r="E18" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="60">
       <c r="A19" t="s">
@@ -882,6 +918,9 @@
       <c r="E19" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
@@ -893,6 +932,9 @@
       <c r="E20" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
@@ -904,6 +946,9 @@
       <c r="E21" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
@@ -915,6 +960,9 @@
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
@@ -926,6 +974,9 @@
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
@@ -937,6 +988,9 @@
       <c r="E24" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
@@ -947,6 +1001,9 @@
       </c>
       <c r="E25" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9">

--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="113">
   <si>
     <t>C1</t>
   </si>
@@ -304,6 +304,66 @@
   </si>
   <si>
     <t>U1,U2,U3,U4</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>C2,C4</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>RELAIS-DPDT</t>
+  </si>
+  <si>
+    <t>FET_N</t>
+  </si>
+  <si>
+    <t>LM7805</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>D1,D2,D3</t>
+  </si>
+  <si>
+    <t>DIODE ?R3</t>
+  </si>
+  <si>
+    <t>Carte contacteur</t>
+  </si>
+  <si>
+    <t>K1,K2,K3</t>
+  </si>
+  <si>
+    <t>Relais</t>
+  </si>
+  <si>
+    <t>Bornier 4</t>
+  </si>
+  <si>
+    <t>Q1,Q2,Q3</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>R1,R2</t>
+  </si>
+  <si>
+    <t>R3,R5,R7</t>
+  </si>
+  <si>
+    <t>R4,R6,R8</t>
+  </si>
+  <si>
+    <t>220ohm 0,25W</t>
+  </si>
+  <si>
+    <t>Logique</t>
   </si>
 </sst>
 </file>
@@ -347,12 +407,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I55"/>
+  <dimension ref="A2:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1284,7 +1347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -1298,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -1312,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -1340,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -1354,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1368,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -1380,6 +1443,236 @@
       </c>
       <c r="F55">
         <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>94</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" t="s">
+        <v>110</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="3">
+        <v>4001</v>
+      </c>
+      <c r="E73" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="147">
   <si>
     <t>C1</t>
   </si>
@@ -364,6 +364,109 @@
   </si>
   <si>
     <t>Logique</t>
+  </si>
+  <si>
+    <t>Carte moteur thermique</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>MEZZA1 MEZZA2</t>
+  </si>
+  <si>
+    <t>Ampli Op</t>
+  </si>
+  <si>
+    <t>Carte convertisseur drivers</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>ALIM</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>TRACO_20WI_DUAL</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>Condensateur C2</t>
+  </si>
+  <si>
+    <t>C1,C5,C8,C10,C12,C14</t>
+  </si>
+  <si>
+    <t>C2,C6</t>
+  </si>
+  <si>
+    <t>C7,C9,C11,C13</t>
+  </si>
+  <si>
+    <t>Diode LED</t>
+  </si>
+  <si>
+    <t>Connecteur SIL-2</t>
+  </si>
+  <si>
+    <t>P2,P4</t>
+  </si>
+  <si>
+    <t>he10-14d</t>
+  </si>
+  <si>
+    <t>Connecteur SIL-7</t>
+  </si>
+  <si>
+    <t>R1,R3,R11,R12,R13,R14,R15
+R16</t>
+  </si>
+  <si>
+    <t>R2,R4</t>
+  </si>
+  <si>
+    <t>500ohm 0,25W</t>
+  </si>
+  <si>
+    <t>R5,R6,R7,R8</t>
+  </si>
+  <si>
+    <t>360ohm 0,25W</t>
+  </si>
+  <si>
+    <t>R9,R10</t>
+  </si>
+  <si>
+    <t>Alimentation</t>
+  </si>
+  <si>
+    <t>Inverseur logique</t>
+  </si>
+  <si>
+    <t>4069 (DIP14)</t>
+  </si>
+  <si>
+    <t>HCPL2531 (DIP8)</t>
+  </si>
+  <si>
+    <t>U4,U5</t>
+  </si>
+  <si>
+    <t>HCPL2630 (DIP8)</t>
   </si>
 </sst>
 </file>
@@ -387,12 +490,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -407,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -416,6 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,16 +820,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I73"/>
+  <dimension ref="A2:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" customWidth="1"/>
@@ -1549,7 +1659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -1563,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -1577,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -1591,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -1605,7 +1715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -1619,7 +1729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>46</v>
       </c>
@@ -1633,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>46</v>
       </c>
@@ -1647,7 +1757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -1661,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -1672,6 +1782,410 @@
         <v>99</v>
       </c>
       <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="B76" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="B88" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>28</v>
+      </c>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+      <c r="E90" t="s">
+        <v>127</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" t="s">
+        <v>119</v>
+      </c>
+      <c r="E93" t="s">
+        <v>114</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>120</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" t="s">
+        <v>93</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30">
+      <c r="A98" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E100" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101" t="s">
+        <v>140</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="3">
+        <v>7805</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" t="s">
+        <v>124</v>
+      </c>
+      <c r="E103" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" t="s">
+        <v>145</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>146</v>
+      </c>
+      <c r="E106" t="s">
+        <v>125</v>
+      </c>
+      <c r="F106">
         <v>1</v>
       </c>
     </row>

--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="162">
   <si>
     <t>C1</t>
   </si>
@@ -467,6 +467,53 @@
   </si>
   <si>
     <t>HCPL2630 (DIP8)</t>
+  </si>
+  <si>
+    <t>HE10-10</t>
+  </si>
+  <si>
+    <t>SW_PUSH</t>
+  </si>
+  <si>
+    <t>Carte test ldc</t>
+  </si>
+  <si>
+    <t>P1,P2</t>
+  </si>
+  <si>
+    <t>P6,P7,P8,P9</t>
+  </si>
+  <si>
+    <t>Valeur ??</t>
+  </si>
+  <si>
+    <t>RV1,RV2</t>
+  </si>
+  <si>
+    <t>SW1,SW2</t>
+  </si>
+  <si>
+    <t>Bouton poussoir</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Carte test PIC</t>
+  </si>
+  <si>
+    <t>D1,D2,D3,D4,D5,D6,D7,D8,D9
+D10,D11,D12,D13,D14</t>
+  </si>
+  <si>
+    <t>LED(Diamètre couleur ?)</t>
+  </si>
+  <si>
+    <t>R1,R2,R3,R4,R5,R6,R7,R8,R9
+R10,R11,R12,R13,R14</t>
+  </si>
+  <si>
+    <t>?? Valeur</t>
   </si>
 </sst>
 </file>
@@ -820,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I106"/>
+  <dimension ref="A2:I123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2049,7 +2096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>134</v>
       </c>
@@ -2063,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30">
+    <row r="98" spans="1:9" ht="30">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -2077,7 +2124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -2091,7 +2138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -2105,7 +2152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>46</v>
       </c>
@@ -2119,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -2133,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>64</v>
       </c>
@@ -2147,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>142</v>
       </c>
@@ -2161,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:9">
       <c r="A105" s="4" t="s">
         <v>115</v>
       </c>
@@ -2175,7 +2222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:9">
       <c r="A106" s="4" t="s">
         <v>115</v>
       </c>
@@ -2187,6 +2234,189 @@
       </c>
       <c r="F106">
         <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="B110" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" t="s">
+        <v>73</v>
+      </c>
+      <c r="F111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" t="s">
+        <v>29</v>
+      </c>
+      <c r="I111" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" t="s">
+        <v>150</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" t="s">
+        <v>151</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E114" t="s">
+        <v>108</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E115" t="s">
+        <v>153</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" t="s">
+        <v>148</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E116" t="s">
+        <v>154</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="B119" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="30">
+      <c r="A121" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" t="s">
+        <v>150</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="30">
+      <c r="A123" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="197">
   <si>
     <t>C1</t>
   </si>
@@ -396,10 +396,16 @@
     <t>Interface</t>
   </si>
   <si>
+    <t>R3</t>
+  </si>
+  <si>
     <t>1k</t>
   </si>
   <si>
     <t>TRACO_20WI_DUAL</t>
+  </si>
+  <si>
+    <t>U4</t>
   </si>
   <si>
     <t>U6</t>
@@ -514,6 +520,106 @@
   </si>
   <si>
     <t>?? Valeur</t>
+  </si>
+  <si>
+    <t>Carte standard 28 DCDC</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>MCP2551</t>
+  </si>
+  <si>
+    <t>ICD</t>
+  </si>
+  <si>
+    <t>MAX232</t>
+  </si>
+  <si>
+    <t>TMH_1205S</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>C6,C9,C10,C11,C13,C14,C16</t>
+  </si>
+  <si>
+    <t>C5,C7,C8,C12,C15,C17,C20</t>
+  </si>
+  <si>
+    <t>RED (?? Diamètre)</t>
+  </si>
+  <si>
+    <t>Pour RS232</t>
+  </si>
+  <si>
+    <t>MEZZA1,MEZZA2</t>
+  </si>
+  <si>
+    <t>P1,P2,P3,P4,P5,P6,P7,P8,P9</t>
+  </si>
+  <si>
+    <t>R1,R2,R4</t>
+  </si>
+  <si>
+    <t>1K 0,25W</t>
+  </si>
+  <si>
+    <t>47K 0,25W</t>
+  </si>
+  <si>
+    <t>Traceiver CAN</t>
+  </si>
+  <si>
+    <t>Programmateur</t>
+  </si>
+  <si>
+    <t>Module Série</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>PIC18F2580</t>
+  </si>
+  <si>
+    <t>Quartz</t>
+  </si>
+  <si>
+    <t>Carte standard 40</t>
+  </si>
+  <si>
+    <t>PIC18F4580</t>
+  </si>
+  <si>
+    <t>C1,C4,C5,C7,C8,C12,C15,C18</t>
+  </si>
+  <si>
+    <t>C6,C9,C10,C11,C13,C14,C16,
+C17</t>
+  </si>
+  <si>
+    <t>RED (?diamètre)</t>
+  </si>
+  <si>
+    <t>he10-16d</t>
+  </si>
+  <si>
+    <t>P1,P2,P3</t>
+  </si>
+  <si>
+    <t>Tranceiver CAN</t>
   </si>
 </sst>
 </file>
@@ -867,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I123"/>
+  <dimension ref="A2:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2000,13 +2106,13 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
         <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F90">
         <v>6</v>
@@ -2014,13 +2120,13 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -2028,13 +2134,13 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F92">
         <v>4</v>
@@ -2042,7 +2148,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93" t="s">
         <v>119</v>
@@ -2056,7 +2162,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
@@ -2070,7 +2176,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
         <v>121</v>
@@ -2087,10 +2193,10 @@
         <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E96" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -2098,7 +2204,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97" t="s">
         <v>122</v>
@@ -2118,7 +2224,7 @@
         <v>50</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F98">
         <v>8</v>
@@ -2129,10 +2235,10 @@
         <v>46</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E99" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -2143,10 +2249,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E100" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F100">
         <v>4</v>
@@ -2157,10 +2263,10 @@
         <v>46</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E101" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -2168,7 +2274,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B102" s="3">
         <v>7805</v>
@@ -2185,7 +2291,7 @@
         <v>64</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E103" t="s">
         <v>20</v>
@@ -2196,10 +2302,10 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E104" t="s">
         <v>22</v>
@@ -2213,10 +2319,10 @@
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -2227,10 +2333,10 @@
         <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E106" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -2238,7 +2344,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="B110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -2275,10 +2381,10 @@
         <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E112" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -2292,7 +2398,7 @@
         <v>43</v>
       </c>
       <c r="E113" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F113">
         <v>4</v>
@@ -2303,7 +2409,7 @@
         <v>46</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E114" t="s">
         <v>108</v>
@@ -2317,10 +2423,10 @@
         <v>63</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E115" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -2328,16 +2434,16 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D116" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" t="s">
         <v>156</v>
-      </c>
-      <c r="E116" t="s">
-        <v>154</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -2345,7 +2451,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="B119" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -2379,13 +2485,13 @@
     </row>
     <row r="121" spans="1:9" ht="30">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F121">
         <v>14</v>
@@ -2396,10 +2502,10 @@
         <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E122" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F122">
         <v>2</v>
@@ -2410,13 +2516,481 @@
         <v>46</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F123">
         <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="B126" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" t="s">
+        <v>73</v>
+      </c>
+      <c r="F127" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" t="s">
+        <v>28</v>
+      </c>
+      <c r="H127" t="s">
+        <v>29</v>
+      </c>
+      <c r="I127" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>175</v>
+      </c>
+      <c r="F128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>174</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>165</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>30</v>
+      </c>
+      <c r="B131" t="s">
+        <v>95</v>
+      </c>
+      <c r="E131" t="s">
+        <v>166</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>176</v>
+      </c>
+      <c r="E132" t="s">
+        <v>114</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>39</v>
+      </c>
+      <c r="B133" t="s">
+        <v>177</v>
+      </c>
+      <c r="E133" t="s">
+        <v>167</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134" t="s">
+        <v>149</v>
+      </c>
+      <c r="E134" t="s">
+        <v>178</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" t="s">
+        <v>43</v>
+      </c>
+      <c r="E135" t="s">
+        <v>179</v>
+      </c>
+      <c r="F135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" t="s">
+        <v>181</v>
+      </c>
+      <c r="E136" t="s">
+        <v>180</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" t="s">
+        <v>182</v>
+      </c>
+      <c r="E137" t="s">
+        <v>123</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>183</v>
+      </c>
+      <c r="B138" t="s">
+        <v>168</v>
+      </c>
+      <c r="E138" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>184</v>
+      </c>
+      <c r="B139" t="s">
+        <v>169</v>
+      </c>
+      <c r="E139" t="s">
+        <v>22</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" t="s">
+        <v>170</v>
+      </c>
+      <c r="E140" t="s">
+        <v>126</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>186</v>
+      </c>
+      <c r="B141" t="s">
+        <v>187</v>
+      </c>
+      <c r="E141" t="s">
+        <v>99</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>171</v>
+      </c>
+      <c r="E142" t="s">
+        <v>127</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>188</v>
+      </c>
+      <c r="B143" t="s">
+        <v>173</v>
+      </c>
+      <c r="E143" t="s">
+        <v>172</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="B146" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" t="s">
+        <v>73</v>
+      </c>
+      <c r="F147" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" t="s">
+        <v>28</v>
+      </c>
+      <c r="H147" t="s">
+        <v>29</v>
+      </c>
+      <c r="I147" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" t="s">
+        <v>95</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="30">
+      <c r="A151" t="s">
+        <v>30</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>75</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E152" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154" t="s">
+        <v>194</v>
+      </c>
+      <c r="E154" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>39</v>
+      </c>
+      <c r="B155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>46</v>
+      </c>
+      <c r="B156" t="s">
+        <v>181</v>
+      </c>
+      <c r="E156" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>46</v>
+      </c>
+      <c r="B157" t="s">
+        <v>182</v>
+      </c>
+      <c r="E157" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>143</v>
+      </c>
+      <c r="B158">
+        <v>7805</v>
+      </c>
+      <c r="E158" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>196</v>
+      </c>
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+      <c r="E159" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>184</v>
+      </c>
+      <c r="B160" t="s">
+        <v>169</v>
+      </c>
+      <c r="E160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>185</v>
+      </c>
+      <c r="B161" t="s">
+        <v>170</v>
+      </c>
+      <c r="E161" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>186</v>
+      </c>
+      <c r="B162" t="s">
+        <v>190</v>
+      </c>
+      <c r="E162" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163" t="s">
+        <v>173</v>
+      </c>
+      <c r="E163" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11640"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Recapitulatif" sheetId="4" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="236">
   <si>
     <t>C1</t>
   </si>
@@ -620,13 +621,134 @@
   </si>
   <si>
     <t>Tranceiver CAN</t>
+  </si>
+  <si>
+    <t>Nom générique</t>
+  </si>
+  <si>
+    <t>Composants</t>
+  </si>
+  <si>
+    <t>Condensateurs</t>
+  </si>
+  <si>
+    <t>1000u</t>
+  </si>
+  <si>
+    <t>Référence fabricant</t>
+  </si>
+  <si>
+    <t>Udv</t>
+  </si>
+  <si>
+    <t>PUdV</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>Udv = unité de vente</t>
+  </si>
+  <si>
+    <t>PudV = prix unité de vente</t>
+  </si>
+  <si>
+    <t>PU = prix unitaire</t>
+  </si>
+  <si>
+    <t>MC0805N270J101A2.54MM</t>
+  </si>
+  <si>
+    <t>C317C104M5U5TA</t>
+  </si>
+  <si>
+    <t>MKP2F033301M00KSSD</t>
+  </si>
+  <si>
+    <t>ECA2CHG010</t>
+  </si>
+  <si>
+    <t>100YXF10MEFC6.3X11</t>
+  </si>
+  <si>
+    <t>35ZLH100MEFC6.3X11</t>
+  </si>
+  <si>
+    <t>Condensateurs (Rad)</t>
+  </si>
+  <si>
+    <t>Condensateurs (Axe)</t>
+  </si>
+  <si>
+    <t>16YXF1000MEFC10X20</t>
+  </si>
+  <si>
+    <t>MAL202115102E3</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>Résistance ¼W</t>
+  </si>
+  <si>
+    <t>Résistance 3W</t>
+  </si>
+  <si>
+    <t>Optocoupleur</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>27k</t>
+  </si>
+  <si>
+    <t>MF25 33R</t>
+  </si>
+  <si>
+    <t>MCMF0W4FF1000A50</t>
+  </si>
+  <si>
+    <t>MCMF0W4FF2200A50</t>
+  </si>
+  <si>
+    <t>MCMF0W4FF3600A50</t>
+  </si>
+  <si>
+    <t>MCMF0W4FF3300A50</t>
+  </si>
+  <si>
+    <t>RN60D1001F</t>
+  </si>
+  <si>
+    <t>CMF1/44991FLFTR</t>
+  </si>
+  <si>
+    <t>MF25 10K</t>
+  </si>
+  <si>
+    <t>MF25 20K</t>
+  </si>
+  <si>
+    <t>PR03000201802JAC00</t>
+  </si>
+  <si>
+    <t>PR03000202702JAC00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,8 +764,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +782,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,10 +801,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -679,8 +815,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -973,10 +1120,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6">
+        <v>1694239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G6" s="9">
+        <f>F6/E6</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7">
+        <v>1457705</v>
+      </c>
+      <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" ref="G7:G24" si="0">F7/E7</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8">
+        <v>1890269</v>
+      </c>
+      <c r="C8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.86999999999999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9">
+        <v>1848561</v>
+      </c>
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <f>5*0.29</f>
+        <v>1.45</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10">
+        <v>1144640</v>
+      </c>
+      <c r="C10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <f>0.24*5</f>
+        <v>1.2</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11">
+        <v>8126658</v>
+      </c>
+      <c r="C11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12">
+        <v>1144617</v>
+      </c>
+      <c r="C12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <f>0.75*5</f>
+        <v>3.75</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13">
+        <v>1165376</v>
+      </c>
+      <c r="C13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14">
+        <v>9341773</v>
+      </c>
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="3">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7">
+        <f>50*0.042</f>
+        <v>2.1</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15">
+        <v>1652641</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16">
+        <v>1126953</v>
+      </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="3">
+        <v>220</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17">
+        <v>1126972</v>
+      </c>
+      <c r="C17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="3">
+        <v>330</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18">
+        <v>1126978</v>
+      </c>
+      <c r="C18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="3">
+        <v>360</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19">
+        <v>1652663</v>
+      </c>
+      <c r="C19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20">
+        <v>1416872</v>
+      </c>
+      <c r="C20" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21">
+        <v>9341110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7">
+        <f>0.042*50</f>
+        <v>2.1</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22">
+        <v>9341498</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7">
+        <f>0.042*50</f>
+        <v>2.1</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23">
+        <v>1498450</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24">
+        <v>3226207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2315,8 +2994,8 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="4" t="s">
-        <v>115</v>
+      <c r="A105" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="B105" t="s">
         <v>146</v>
@@ -2329,8 +3008,8 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="4" t="s">
-        <v>115</v>
+      <c r="A106" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="B106" t="s">
         <v>148</v>
@@ -2827,6 +3506,9 @@
       <c r="E148" t="s">
         <v>191</v>
       </c>
+      <c r="F148">
+        <v>8</v>
+      </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" t="s">
@@ -2838,6 +3520,9 @@
       <c r="E149" t="s">
         <v>2</v>
       </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" t="s">
@@ -2849,6 +3534,9 @@
       <c r="E150" t="s">
         <v>4</v>
       </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:9" ht="30">
       <c r="A151" t="s">
@@ -2860,6 +3548,9 @@
       <c r="E151" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="F151">
+        <v>8</v>
+      </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" t="s">
@@ -2871,6 +3562,9 @@
       <c r="E152" t="s">
         <v>114</v>
       </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" t="s">
@@ -2882,6 +3576,9 @@
       <c r="E153" t="s">
         <v>167</v>
       </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" t="s">
@@ -2893,6 +3590,9 @@
       <c r="E154" t="s">
         <v>178</v>
       </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
@@ -2904,6 +3604,9 @@
       <c r="E155" t="s">
         <v>195</v>
       </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" t="s">
@@ -2915,6 +3618,9 @@
       <c r="E156" t="s">
         <v>108</v>
       </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
@@ -2926,6 +3632,9 @@
       <c r="E157" t="s">
         <v>123</v>
       </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
@@ -2937,6 +3646,9 @@
       <c r="E158" t="s">
         <v>18</v>
       </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" t="s">
@@ -2948,6 +3660,9 @@
       <c r="E159" t="s">
         <v>20</v>
       </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
@@ -2959,8 +3674,11 @@
       <c r="E160" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>185</v>
       </c>
@@ -2970,8 +3688,11 @@
       <c r="E161" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>186</v>
       </c>
@@ -2981,8 +3702,11 @@
       <c r="E162" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>188</v>
       </c>
@@ -2991,24 +3715,14 @@
       </c>
       <c r="E163" t="s">
         <v>172</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -3023,4 +3737,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="18495" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Recapitulatif" sheetId="4" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="250">
   <si>
     <t>C1</t>
   </si>
@@ -738,6 +737,48 @@
   </si>
   <si>
     <t>PR03000202702JAC00</t>
+  </si>
+  <si>
+    <t>Connecteur droit mâle</t>
+  </si>
+  <si>
+    <t>Connecteur coudé mâle</t>
+  </si>
+  <si>
+    <t>HE1016</t>
+  </si>
+  <si>
+    <t>HE1010</t>
+  </si>
+  <si>
+    <t>Connecteur droit femelle</t>
+  </si>
+  <si>
+    <t>N2516-6002RB</t>
+  </si>
+  <si>
+    <t>8516-4500PL</t>
+  </si>
+  <si>
+    <t>8510-4500PL</t>
+  </si>
+  <si>
+    <t>22_05_3021</t>
+  </si>
+  <si>
+    <t>22_04_5053</t>
+  </si>
+  <si>
+    <t>22_05_3041</t>
+  </si>
+  <si>
+    <t>22_11_2082</t>
+  </si>
+  <si>
+    <t>22_23_2021</t>
+  </si>
+  <si>
+    <t>MC9A12-1034</t>
   </si>
 </sst>
 </file>
@@ -746,7 +787,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -818,13 +859,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1120,15 +1161,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
   </cols>
@@ -1147,14 +1188,14 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1195,10 +1236,10 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f>F6/E6</f>
         <v>3.5999999999999997E-2</v>
       </c>
@@ -1219,11 +1260,11 @@
       <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>2.6</v>
       </c>
-      <c r="G7" s="9">
-        <f t="shared" ref="G7:G24" si="0">F7/E7</f>
+      <c r="G7" s="8">
+        <f t="shared" ref="G7:G35" si="0">F7/E7</f>
         <v>0.26</v>
       </c>
     </row>
@@ -1243,10 +1284,10 @@
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>0.86999999999999988</v>
       </c>
@@ -1267,11 +1308,11 @@
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f>5*0.29</f>
         <v>1.45</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
@@ -1292,11 +1333,11 @@
       <c r="E10">
         <v>5</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f>0.24*5</f>
         <v>1.2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
@@ -1317,10 +1358,10 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.4</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -1341,11 +1382,11 @@
       <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f>0.75*5</f>
         <v>3.75</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
@@ -1366,10 +1407,10 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>2.83</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>2.83</v>
       </c>
@@ -1390,11 +1431,11 @@
       <c r="E14">
         <v>50</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f>50*0.042</f>
         <v>2.1</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
@@ -1415,10 +1456,10 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>9.8000000000000004E-2</v>
       </c>
@@ -1439,10 +1480,10 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>6.4000000000000001E-2</v>
       </c>
@@ -1463,10 +1504,10 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>6.4000000000000001E-2</v>
       </c>
@@ -1487,10 +1528,10 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>5.3999999999999999E-2</v>
       </c>
@@ -1511,10 +1552,10 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <f t="shared" si="0"/>
         <v>8.3000000000000004E-2</v>
       </c>
@@ -1535,10 +1576,10 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <f t="shared" si="0"/>
         <v>2.5999999999999999E-2</v>
       </c>
@@ -1559,11 +1600,11 @@
       <c r="E21">
         <v>50</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f>0.042*50</f>
         <v>2.1</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
@@ -1584,11 +1625,11 @@
       <c r="E22">
         <v>50</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f>0.042*50</f>
         <v>2.1</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
@@ -1609,10 +1650,10 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>0.75</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
@@ -1633,12 +1674,259 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>0.75</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <f t="shared" si="0"/>
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26">
+        <v>1462926</v>
+      </c>
+      <c r="C26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27">
+        <v>1756796</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28">
+        <v>1756805</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30">
+        <v>1099254</v>
+      </c>
+      <c r="C30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31">
+        <v>9838260</v>
+      </c>
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3.41</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32">
+        <v>1756797</v>
+      </c>
+      <c r="C32" t="s">
+        <v>244</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33">
+        <v>1756798</v>
+      </c>
+      <c r="C33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34">
+        <v>9138625</v>
+      </c>
+      <c r="C34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35">
+        <v>9138633</v>
+      </c>
+      <c r="C35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1654,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F67" sqref="A67:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2994,7 +3282,7 @@
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>222</v>
       </c>
       <c r="B105" t="s">
@@ -3008,7 +3296,7 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
         <v>222</v>
       </c>
       <c r="B106" t="s">
@@ -3728,25 +4016,977 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10">
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="60">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="30">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="C28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4001</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="C37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="C44" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" t="s">
+        <v>114</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="3">
+        <v>7805</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="C56" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="C62" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="75">
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" t="s">
+        <v>152</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="C68" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" t="s">
+        <v>170</v>
+      </c>
+      <c r="F73" t="s">
+        <v>126</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" t="s">
+        <v>127</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" t="s">
+        <v>173</v>
+      </c>
+      <c r="F76" t="s">
+        <v>172</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="C79" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" t="s">
+        <v>73</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F81" t="s">
+        <v>114</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82">
+        <v>7805</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" t="s">
+        <v>126</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
+        <v>190</v>
+      </c>
+      <c r="F86" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87" t="s">
+        <v>172</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="304">
   <si>
     <t>C1</t>
   </si>
@@ -779,6 +779,168 @@
   </si>
   <si>
     <t>MC9A12-1034</t>
+  </si>
+  <si>
+    <t>Diode Zener 10V</t>
+  </si>
+  <si>
+    <t>Transistor FET_N</t>
+  </si>
+  <si>
+    <t>T0-92</t>
+  </si>
+  <si>
+    <t>2N5484"D74Z</t>
+  </si>
+  <si>
+    <t>DEL jaune 3mm</t>
+  </si>
+  <si>
+    <t>HLMP-1401</t>
+  </si>
+  <si>
+    <t>DEL Yellow3</t>
+  </si>
+  <si>
+    <t>HLMP-1301</t>
+  </si>
+  <si>
+    <t>DEL Red3</t>
+  </si>
+  <si>
+    <t>DEL rouge 3mm</t>
+  </si>
+  <si>
+    <t>DEL verte 3mm</t>
+  </si>
+  <si>
+    <t>HLMP-1503</t>
+  </si>
+  <si>
+    <t>DEL Green3</t>
+  </si>
+  <si>
+    <t>1N4740A</t>
+  </si>
+  <si>
+    <t>Diode Zener 5,1V</t>
+  </si>
+  <si>
+    <t>1N4733A</t>
+  </si>
+  <si>
+    <t>Diode générique</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>TEN 8-1212</t>
+  </si>
+  <si>
+    <t>TEN 20-2423WIN</t>
+  </si>
+  <si>
+    <t>TEN 20-2423</t>
+  </si>
+  <si>
+    <t>Amplis Opérationels</t>
+  </si>
+  <si>
+    <t>LM324AN</t>
+  </si>
+  <si>
+    <t>LM358AN</t>
+  </si>
+  <si>
+    <t>Portes NOR</t>
+  </si>
+  <si>
+    <t>CD4001UBE</t>
+  </si>
+  <si>
+    <t>HCF4069UBEY</t>
+  </si>
+  <si>
+    <t>Portes inverseuses</t>
+  </si>
+  <si>
+    <t>HCPL-2531</t>
+  </si>
+  <si>
+    <t>HCPL-2630-000E</t>
+  </si>
+  <si>
+    <t>HCPL-2630</t>
+  </si>
+  <si>
+    <t>TMH 1205S</t>
+  </si>
+  <si>
+    <t>L7805ACP</t>
+  </si>
+  <si>
+    <t>MCP2551-E/P</t>
+  </si>
+  <si>
+    <t>PIC 18F2580</t>
+  </si>
+  <si>
+    <t>PIC18F2580-I/SP</t>
+  </si>
+  <si>
+    <t>18F2580</t>
+  </si>
+  <si>
+    <t>PIC18F4580-I/P</t>
+  </si>
+  <si>
+    <t>18F4580</t>
+  </si>
+  <si>
+    <t>PIC 18F4580</t>
+  </si>
+  <si>
+    <t>Support tranceiver</t>
+  </si>
+  <si>
+    <t>Support Portes NOR</t>
+  </si>
+  <si>
+    <t>Support Portes inver</t>
+  </si>
+  <si>
+    <t>Support 18f2580</t>
+  </si>
+  <si>
+    <t>Support 18F4580</t>
+  </si>
+  <si>
+    <t>MAX 232</t>
+  </si>
+  <si>
+    <t>Support MAX232</t>
+  </si>
+  <si>
+    <t>Bornier ICD</t>
+  </si>
+  <si>
+    <t>Relais DPDT</t>
+  </si>
+  <si>
+    <t>Bouton poussoir CI</t>
+  </si>
+  <si>
+    <t>LM7805CT</t>
+  </si>
+  <si>
+    <t>Quartz 10m</t>
+  </si>
+  <si>
+    <t>AS-10.000-18</t>
+  </si>
+  <si>
+    <t>10Mhz</t>
   </si>
 </sst>
 </file>
@@ -789,7 +951,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +970,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -846,7 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -866,6 +1041,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1161,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1264,7 +1447,7 @@
         <v>2.6</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" ref="G7:G35" si="0">F7/E7</f>
+        <f t="shared" ref="G7:G68" si="0">F7/E7</f>
         <v>0.26</v>
       </c>
     </row>
@@ -1926,7 +2109,677 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>264</v>
+      </c>
+      <c r="B36">
+        <v>1861447</v>
+      </c>
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37">
+        <v>1861455</v>
+      </c>
+      <c r="C37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38">
+        <v>1612346</v>
+      </c>
+      <c r="C38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39">
+        <v>1268655</v>
+      </c>
+      <c r="C39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" t="s">
+        <v>252</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40">
+        <v>1003198</v>
+      </c>
+      <c r="C40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41">
+        <v>1003196</v>
+      </c>
+      <c r="C41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41" s="6">
+        <f>0.22*5</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22000000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>260</v>
+      </c>
+      <c r="B42">
+        <v>1003199</v>
+      </c>
+      <c r="C42" t="s">
+        <v>261</v>
+      </c>
+      <c r="D42" t="s">
+        <v>262</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42" s="6">
+        <f>0.194*5</f>
+        <v>0.97</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1205017</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>22.4</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1284269</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>46.7</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45">
+        <v>1007558</v>
+      </c>
+      <c r="C45" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>6</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46">
+        <v>1564954</v>
+      </c>
+      <c r="C46" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47">
+        <v>9486810</v>
+      </c>
+      <c r="C47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48">
+        <v>1739899</v>
+      </c>
+      <c r="C48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" s="3">
+        <v>4001</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49">
+        <v>9755560</v>
+      </c>
+      <c r="C49" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="3">
+        <v>4069</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50">
+        <v>1021247</v>
+      </c>
+      <c r="C50" t="s">
+        <v>278</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>2.96</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51">
+        <v>9994904</v>
+      </c>
+      <c r="C51" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="0"/>
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1261398</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" s="12">
+        <v>7805</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="15">
+        <v>1439745</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="G53" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" s="15">
+        <v>9321276</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G54" s="8">
+        <f t="shared" si="0"/>
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B55" s="15">
+        <v>9321373</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6">
+        <v>6.97</v>
+      </c>
+      <c r="G55" s="8">
+        <f t="shared" si="0"/>
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="13"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="15">
+        <v>1523798</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="F57" s="6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G57" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" s="15">
+        <v>1611856</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="G58" s="8">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="11"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="11"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="11"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1942,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I163"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F67" sqref="A67:F67"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4016,973 +4869,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:J87"/>
+  <dimension ref="B3:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="4" spans="2:10">
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>69</v>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="60">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>173</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
       </c>
       <c r="G7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="30">
+      <c r="C10" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>172</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="C23" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="C28" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="3">
-        <v>4001</v>
-      </c>
-      <c r="F34" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="C37" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="C44" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" t="s">
-        <v>114</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>120</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="3">
-        <v>7805</v>
-      </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" t="s">
-        <v>147</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C52" t="s">
-        <v>148</v>
-      </c>
-      <c r="F52" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10">
-      <c r="C56" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="B57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" t="s">
-        <v>73</v>
-      </c>
-      <c r="G57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" t="s">
-        <v>29</v>
-      </c>
-      <c r="J57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
-      <c r="B58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F58" t="s">
-        <v>155</v>
-      </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
-      <c r="B59" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F59" t="s">
-        <v>156</v>
-      </c>
-      <c r="G59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10">
-      <c r="C62" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
-      <c r="B63" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" t="s">
-        <v>29</v>
-      </c>
-      <c r="J63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="75">
-      <c r="B64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G64">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10">
-      <c r="B65" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" t="s">
-        <v>152</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="C68" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" t="s">
-        <v>28</v>
-      </c>
-      <c r="I69" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" t="s">
-        <v>176</v>
-      </c>
-      <c r="F70" t="s">
-        <v>114</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" t="s">
-        <v>183</v>
-      </c>
-      <c r="C71" t="s">
-        <v>168</v>
-      </c>
-      <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" t="s">
-        <v>184</v>
-      </c>
-      <c r="C72" t="s">
-        <v>169</v>
-      </c>
-      <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73" t="s">
-        <v>170</v>
-      </c>
-      <c r="F73" t="s">
-        <v>126</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" t="s">
-        <v>187</v>
-      </c>
-      <c r="F74" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" t="s">
-        <v>171</v>
-      </c>
-      <c r="F75" t="s">
-        <v>127</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" t="s">
-        <v>188</v>
-      </c>
-      <c r="C76" t="s">
-        <v>173</v>
-      </c>
-      <c r="F76" t="s">
-        <v>172</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="C79" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" t="s">
-        <v>73</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" t="s">
-        <v>29</v>
-      </c>
-      <c r="J80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F81" t="s">
-        <v>114</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82">
-        <v>7805</v>
-      </c>
-      <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
-      </c>
-      <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
-      </c>
-      <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85" t="s">
-        <v>185</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
-      </c>
-      <c r="F85" t="s">
-        <v>126</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" t="s">
-        <v>186</v>
-      </c>
-      <c r="C86" t="s">
-        <v>190</v>
-      </c>
-      <c r="F86" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" t="s">
-        <v>188</v>
-      </c>
-      <c r="C87" t="s">
-        <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
-      </c>
-      <c r="G87">
         <v>1</v>
       </c>
     </row>

--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Recapitulatif" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="Référence">Recapitulatif!$A$1:$G$451</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1340,13 +1340,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;???\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1762,21 +1762,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1784,6 +1770,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1795,7 +1787,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1886,6 +1886,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1920,6 +1921,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2095,15 +2097,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR89"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ81" sqref="AJ81"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT39" sqref="BT39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
@@ -2135,7 +2137,7 @@
     <col min="39" max="39" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>204</v>
       </c>
@@ -2143,7 +2145,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>206</v>
       </c>
@@ -2157,272 +2159,272 @@
       <c r="AF2" s="54"/>
       <c r="AI2" s="54"/>
     </row>
-    <row r="3" spans="1:70" ht="18.75">
-      <c r="H3" s="83" t="s">
+    <row r="3" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H3" s="81" t="s">
         <v>304</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="79" t="s">
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="79" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="79" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="R3" s="80"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="79" t="s">
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="U3" s="80"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="79" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="75" t="s">
         <v>325</v>
       </c>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="79" t="s">
+      <c r="X3" s="76"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="75" t="s">
         <v>330</v>
       </c>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="79" t="s">
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="75" t="s">
         <v>335</v>
       </c>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="79" t="s">
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="75" t="s">
         <v>337</v>
       </c>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="79" t="s">
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="75" t="s">
         <v>340</v>
       </c>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="74" t="s">
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="83" t="s">
         <v>378</v>
       </c>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="74" t="s">
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="83" t="s">
         <v>382</v>
       </c>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="74" t="s">
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="83" t="s">
         <v>383</v>
       </c>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="76"/>
-      <c r="AU3" s="74" t="s">
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="85"/>
+      <c r="AU3" s="83" t="s">
         <v>384</v>
       </c>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="74" t="s">
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="83" t="s">
         <v>385</v>
       </c>
-      <c r="AY3" s="75"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="74" t="s">
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="85"/>
+      <c r="BA3" s="83" t="s">
         <v>386</v>
       </c>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="76"/>
-      <c r="BD3" s="74" t="s">
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="85"/>
+      <c r="BD3" s="83" t="s">
         <v>387</v>
       </c>
-      <c r="BE3" s="75"/>
-      <c r="BF3" s="76"/>
-      <c r="BG3" s="74" t="s">
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="85"/>
+      <c r="BG3" s="83" t="s">
         <v>388</v>
       </c>
-      <c r="BH3" s="75"/>
-      <c r="BI3" s="76"/>
-      <c r="BJ3" s="74" t="s">
+      <c r="BH3" s="84"/>
+      <c r="BI3" s="85"/>
+      <c r="BJ3" s="83" t="s">
         <v>389</v>
       </c>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="76"/>
-      <c r="BM3" s="74" t="s">
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="85"/>
+      <c r="BM3" s="83" t="s">
         <v>390</v>
       </c>
-      <c r="BN3" s="75"/>
-      <c r="BO3" s="76"/>
-      <c r="BP3" s="74" t="s">
+      <c r="BN3" s="84"/>
+      <c r="BO3" s="85"/>
+      <c r="BP3" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="BQ3" s="75"/>
-      <c r="BR3" s="76"/>
-    </row>
-    <row r="4" spans="1:70" ht="18.75">
-      <c r="H4" s="84" t="s">
+      <c r="BQ3" s="84"/>
+      <c r="BR3" s="85"/>
+    </row>
+    <row r="4" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H4" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="I4" s="84"/>
+      <c r="I4" s="82"/>
       <c r="J4" s="37">
         <v>2</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="38">
         <v>2</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="79"/>
       <c r="P4" s="38">
         <v>2</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="R4" s="78"/>
+      <c r="R4" s="79"/>
       <c r="S4" s="38">
         <v>2</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="T4" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="U4" s="78"/>
+      <c r="U4" s="79"/>
       <c r="V4" s="38">
         <v>2</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="X4" s="78"/>
+      <c r="X4" s="79"/>
       <c r="Y4" s="38">
         <v>2</v>
       </c>
-      <c r="Z4" s="77" t="s">
+      <c r="Z4" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="AA4" s="78"/>
+      <c r="AA4" s="79"/>
       <c r="AB4" s="38">
         <v>2</v>
       </c>
-      <c r="AC4" s="77" t="s">
+      <c r="AC4" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="AD4" s="78"/>
+      <c r="AD4" s="79"/>
       <c r="AE4" s="38">
         <v>1</v>
       </c>
-      <c r="AF4" s="77" t="s">
+      <c r="AF4" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="AG4" s="78"/>
+      <c r="AG4" s="79"/>
       <c r="AH4" s="38">
         <v>20</v>
       </c>
-      <c r="AI4" s="77" t="s">
+      <c r="AI4" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="AJ4" s="78"/>
+      <c r="AJ4" s="79"/>
       <c r="AK4" s="38">
         <v>4</v>
       </c>
-      <c r="AL4" s="77" t="s">
+      <c r="AL4" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="AM4" s="78"/>
+      <c r="AM4" s="79"/>
       <c r="AN4" s="66">
         <v>1</v>
       </c>
-      <c r="AO4" s="77" t="s">
+      <c r="AO4" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="AP4" s="78"/>
+      <c r="AP4" s="79"/>
       <c r="AQ4" s="66">
         <v>1</v>
       </c>
-      <c r="AR4" s="77" t="s">
+      <c r="AR4" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="AS4" s="78"/>
+      <c r="AS4" s="79"/>
       <c r="AT4" s="66">
         <v>1</v>
       </c>
-      <c r="AU4" s="77" t="s">
+      <c r="AU4" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="AV4" s="78"/>
+      <c r="AV4" s="79"/>
       <c r="AW4" s="66">
         <v>1</v>
       </c>
-      <c r="AX4" s="77" t="s">
+      <c r="AX4" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="AY4" s="78"/>
+      <c r="AY4" s="79"/>
       <c r="AZ4" s="66">
         <v>1</v>
       </c>
-      <c r="BA4" s="77" t="s">
+      <c r="BA4" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="BB4" s="78"/>
+      <c r="BB4" s="79"/>
       <c r="BC4" s="66">
         <v>1</v>
       </c>
-      <c r="BD4" s="77" t="s">
+      <c r="BD4" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="BE4" s="78"/>
+      <c r="BE4" s="79"/>
       <c r="BF4" s="66">
         <v>1</v>
       </c>
-      <c r="BG4" s="77" t="s">
+      <c r="BG4" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="BH4" s="78"/>
+      <c r="BH4" s="79"/>
       <c r="BI4" s="66">
         <v>1</v>
       </c>
-      <c r="BJ4" s="77" t="s">
+      <c r="BJ4" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="BK4" s="78"/>
+      <c r="BK4" s="79"/>
       <c r="BL4" s="66">
         <v>1</v>
       </c>
-      <c r="BM4" s="77" t="s">
+      <c r="BM4" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="BN4" s="78"/>
+      <c r="BN4" s="79"/>
       <c r="BO4" s="66">
         <v>1</v>
       </c>
-      <c r="BP4" s="77" t="s">
+      <c r="BP4" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="BQ4" s="78"/>
+      <c r="BQ4" s="79"/>
       <c r="BR4" s="66">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:70" ht="46.5">
-      <c r="A5" s="82" t="s">
+    <row r="5" spans="1:70" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="32" t="s">
         <v>302</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>197</v>
       </c>
@@ -2696,7 +2698,7 @@
       <c r="BQ6" s="8"/>
       <c r="BR6" s="43"/>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>143</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>143</v>
       </c>
@@ -3206,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>143</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>270</v>
       </c>
@@ -3716,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>270</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>392</v>
       </c>
@@ -4226,7 +4228,7 @@
         <v>58.93</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>393</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>292</v>
       </c>
@@ -4736,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>294</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>199</v>
       </c>
@@ -5240,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>199</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>199</v>
       </c>
@@ -5750,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>199</v>
       </c>
@@ -6006,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>199</v>
       </c>
@@ -6262,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>199</v>
       </c>
@@ -6517,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:70">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>214</v>
       </c>
@@ -6772,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:70">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>213</v>
       </c>
@@ -7028,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:70">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>236</v>
       </c>
@@ -7283,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:70">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>236</v>
       </c>
@@ -7538,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:70">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>239</v>
       </c>
@@ -7793,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:70">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>239</v>
       </c>
@@ -8048,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:70">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>235</v>
       </c>
@@ -8303,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:70">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>235</v>
       </c>
@@ -8558,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:70">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>235</v>
       </c>
@@ -8813,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:70">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>235</v>
       </c>
@@ -9068,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:70">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>235</v>
       </c>
@@ -9319,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:70">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>235</v>
       </c>
@@ -9574,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:70">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>235</v>
       </c>
@@ -9829,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:70">
+    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
         <v>360</v>
       </c>
@@ -10084,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:70">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
         <v>359</v>
       </c>
@@ -10339,7 +10341,7 @@
         <v>37.56</v>
       </c>
     </row>
-    <row r="37" spans="1:70">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="s">
         <v>361</v>
       </c>
@@ -10594,7 +10596,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="38" spans="1:70">
+    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
         <v>362</v>
       </c>
@@ -10728,37 +10730,37 @@
         <v>0</v>
       </c>
       <c r="AL38" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM38" s="44">
         <f t="shared" si="21"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="AN38" s="45">
         <f t="shared" si="22"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="AO38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP38" s="44">
         <f t="shared" si="23"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="AQ38" s="45">
         <f t="shared" si="24"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="AR38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS38" s="44">
         <f t="shared" si="25"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="AT38" s="45">
         <f t="shared" si="26"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="AU38">
         <v>2</v>
@@ -10783,48 +10785,48 @@
         <v>0</v>
       </c>
       <c r="BA38" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB38" s="44">
         <f t="shared" si="31"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="BC38" s="45">
         <f t="shared" si="32"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="BD38" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE38" s="44">
         <f t="shared" si="33"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="BF38" s="45">
         <f t="shared" si="34"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="BG38" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH38" s="44">
         <f t="shared" si="35"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="BI38" s="45">
         <f t="shared" si="36"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="BJ38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK38" s="44">
         <f t="shared" si="37"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="BL38" s="45">
         <f t="shared" si="38"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="BM38" s="42">
         <v>0</v>
@@ -10838,18 +10840,18 @@
         <v>0</v>
       </c>
       <c r="BP38" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ38" s="44">
         <f t="shared" si="41"/>
-        <v>9.24</v>
+        <v>18.48</v>
       </c>
       <c r="BR38" s="45">
         <f t="shared" si="42"/>
-        <v>9.24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:70">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
         <v>366</v>
       </c>
@@ -11104,7 +11106,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="40" spans="1:70">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
         <v>368</v>
       </c>
@@ -11359,7 +11361,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="41" spans="1:70">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="s">
         <v>369</v>
       </c>
@@ -11493,37 +11495,37 @@
         <v>0</v>
       </c>
       <c r="AL41" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM41" s="44">
         <f t="shared" si="21"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="AN41" s="45">
         <f t="shared" si="22"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP41" s="44">
         <f t="shared" si="23"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="AQ41" s="45">
         <f t="shared" si="24"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="AR41" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS41" s="44">
         <f t="shared" si="25"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="AT41" s="45">
         <f t="shared" si="26"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="AU41" s="42">
         <v>2</v>
@@ -11548,48 +11550,48 @@
         <v>0</v>
       </c>
       <c r="BA41" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB41" s="44">
         <f t="shared" si="31"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="BC41" s="45">
         <f t="shared" si="32"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="BD41" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE41" s="44">
         <f t="shared" si="33"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="BF41" s="45">
         <f t="shared" si="34"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="BG41" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH41" s="44">
         <f t="shared" si="35"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="BI41" s="45">
         <f t="shared" si="36"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="BJ41" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK41" s="44">
         <f t="shared" si="37"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="BL41" s="45">
         <f t="shared" si="38"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="BM41" s="42">
         <v>0</v>
@@ -11603,18 +11605,18 @@
         <v>0</v>
       </c>
       <c r="BP41" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ41" s="44">
         <f t="shared" si="41"/>
-        <v>7.86</v>
+        <v>15.72</v>
       </c>
       <c r="BR41" s="45">
         <f t="shared" si="42"/>
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:70">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="s">
         <v>367</v>
       </c>
@@ -11869,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:70">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>253</v>
       </c>
@@ -12124,7 +12126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:70">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>258</v>
       </c>
@@ -12380,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:70">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>259</v>
       </c>
@@ -12636,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:70">
+    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>265</v>
       </c>
@@ -12891,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:70">
+    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>249</v>
       </c>
@@ -13146,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:70">
+    <row r="48" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>263</v>
       </c>
@@ -13401,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:70">
+    <row r="49" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>412</v>
       </c>
@@ -13656,7 +13658,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:70">
+    <row r="50" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>408</v>
       </c>
@@ -13911,7 +13913,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:70">
+    <row r="51" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>87</v>
       </c>
@@ -14166,7 +14168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:70">
+    <row r="52" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>23</v>
       </c>
@@ -14417,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:70">
+    <row r="53" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>290</v>
       </c>
@@ -14666,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:70">
+    <row r="54" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>221</v>
       </c>
@@ -14921,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:70">
+    <row r="55" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>221</v>
       </c>
@@ -15176,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:70">
+    <row r="56" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>283</v>
       </c>
@@ -15431,7 +15433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:70">
+    <row r="57" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>288</v>
       </c>
@@ -15686,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:70">
+    <row r="58" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>276</v>
       </c>
@@ -15941,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:70">
+    <row r="59" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>273</v>
       </c>
@@ -16196,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:70">
+    <row r="60" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>63</v>
       </c>
@@ -16451,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:70">
+    <row r="61" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>296</v>
       </c>
@@ -16706,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:70">
+    <row r="62" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>293</v>
       </c>
@@ -16955,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:70">
+    <row r="63" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>219</v>
       </c>
@@ -17211,7 +17213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:70">
+    <row r="64" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>219</v>
       </c>
@@ -17466,7 +17468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:70">
+    <row r="65" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>219</v>
       </c>
@@ -17721,7 +17723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:70">
+    <row r="66" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>219</v>
       </c>
@@ -17976,7 +17978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:70">
+    <row r="67" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>219</v>
       </c>
@@ -18231,7 +18233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:70">
+    <row r="68" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>219</v>
       </c>
@@ -18487,7 +18489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:70">
+    <row r="69" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>219</v>
       </c>
@@ -18742,7 +18744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:70">
+    <row r="70" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>219</v>
       </c>
@@ -18997,7 +18999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:70">
+    <row r="71" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>219</v>
       </c>
@@ -19253,7 +19255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:70">
+    <row r="72" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>219</v>
       </c>
@@ -19508,7 +19510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:70">
+    <row r="73" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>219</v>
       </c>
@@ -19764,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:70">
+    <row r="74" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>219</v>
       </c>
@@ -20003,7 +20005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:70">
+    <row r="75" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>220</v>
       </c>
@@ -20258,7 +20260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:70">
+    <row r="76" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>220</v>
       </c>
@@ -20513,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:70">
+    <row r="77" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>424</v>
       </c>
@@ -20768,7 +20770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:70">
+    <row r="78" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>425</v>
       </c>
@@ -21024,7 +21026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:70">
+    <row r="79" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>291</v>
       </c>
@@ -21273,7 +21275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:70">
+    <row r="80" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>289</v>
       </c>
@@ -21528,7 +21530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:70">
+    <row r="81" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A81" s="72" t="s">
         <v>125</v>
       </c>
@@ -21783,7 +21785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:70">
+    <row r="82" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A82" s="72" t="s">
         <v>19</v>
       </c>
@@ -22038,7 +22040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:70">
+    <row r="83" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>196</v>
       </c>
@@ -22293,7 +22295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:70">
+    <row r="84" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>250</v>
       </c>
@@ -22548,7 +22550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:70">
+    <row r="85" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A85" s="65" t="s">
         <v>406</v>
       </c>
@@ -22803,7 +22805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:70">
+    <row r="86" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A86" s="69" t="s">
         <v>414</v>
       </c>
@@ -23058,7 +23060,7 @@
         <v>0.30320000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:70">
+    <row r="87" spans="1:70" x14ac:dyDescent="0.25">
       <c r="H87" s="2">
         <f t="shared" ref="H87:AM87" si="90">SUM(H7:H86)</f>
         <v>144</v>
@@ -23181,39 +23183,39 @@
       </c>
       <c r="AL87" s="46">
         <f t="shared" si="90"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM87" s="51">
         <f t="shared" si="90"/>
-        <v>118.3712</v>
+        <v>135.47120000000001</v>
       </c>
       <c r="AN87" s="47">
         <f t="shared" ref="AN87:BR87" si="91">SUM(AN7:AN86)</f>
-        <v>118.3712</v>
+        <v>135.47120000000001</v>
       </c>
       <c r="AO87" s="46">
         <f t="shared" si="91"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP87" s="51">
         <f t="shared" si="91"/>
-        <v>126.59119999999999</v>
+        <v>143.69119999999998</v>
       </c>
       <c r="AQ87" s="47">
         <f t="shared" si="91"/>
-        <v>126.59119999999999</v>
+        <v>143.69119999999998</v>
       </c>
       <c r="AR87" s="46">
         <f t="shared" si="91"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS87" s="51">
         <f t="shared" si="91"/>
-        <v>87.111199999999997</v>
+        <v>104.21120000000001</v>
       </c>
       <c r="AT87" s="47">
         <f t="shared" si="91"/>
-        <v>87.111199999999997</v>
+        <v>104.21120000000001</v>
       </c>
       <c r="AU87" s="46">
         <f t="shared" si="91"/>
@@ -23241,51 +23243,51 @@
       </c>
       <c r="BA87" s="46">
         <f t="shared" si="91"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB87" s="51">
         <f t="shared" si="91"/>
-        <v>87.391199999999998</v>
+        <v>104.49120000000001</v>
       </c>
       <c r="BC87" s="47">
         <f t="shared" si="91"/>
-        <v>87.391199999999998</v>
+        <v>104.49120000000001</v>
       </c>
       <c r="BD87" s="46">
         <f t="shared" si="91"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BE87" s="51">
         <f t="shared" si="91"/>
-        <v>267.61119999999994</v>
+        <v>284.71119999999996</v>
       </c>
       <c r="BF87" s="47">
         <f t="shared" si="91"/>
-        <v>267.61119999999994</v>
+        <v>284.71119999999996</v>
       </c>
       <c r="BG87" s="46">
         <f t="shared" si="91"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BH87" s="51">
         <f t="shared" si="91"/>
-        <v>129.63120000000001</v>
+        <v>146.7312</v>
       </c>
       <c r="BI87" s="47">
         <f t="shared" si="91"/>
-        <v>129.63120000000001</v>
+        <v>146.7312</v>
       </c>
       <c r="BJ87" s="46">
         <f t="shared" si="91"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BK87" s="51">
         <f t="shared" si="91"/>
-        <v>162.85120000000001</v>
+        <v>179.9512</v>
       </c>
       <c r="BL87" s="47">
         <f t="shared" si="91"/>
-        <v>162.85120000000001</v>
+        <v>179.9512</v>
       </c>
       <c r="BM87" s="46">
         <f t="shared" si="91"/>
@@ -23301,18 +23303,18 @@
       </c>
       <c r="BP87" s="46">
         <f t="shared" si="91"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BQ87" s="51">
         <f t="shared" si="91"/>
-        <v>150.47120000000004</v>
+        <v>167.57120000000003</v>
       </c>
       <c r="BR87" s="47">
         <f t="shared" si="91"/>
-        <v>150.47120000000004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:70">
+        <v>167.57120000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:70" x14ac:dyDescent="0.25">
       <c r="H88" s="6" t="s">
         <v>315</v>
       </c>
@@ -23503,130 +23505,160 @@
         <v>317</v>
       </c>
     </row>
-    <row r="89" spans="1:70" ht="18.75">
-      <c r="H89" s="83" t="s">
+    <row r="89" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H89" s="81" t="s">
         <v>304</v>
       </c>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="79" t="s">
+      <c r="I89" s="81"/>
+      <c r="J89" s="81"/>
+      <c r="K89" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="L89" s="80"/>
-      <c r="M89" s="81"/>
-      <c r="N89" s="79" t="s">
+      <c r="L89" s="76"/>
+      <c r="M89" s="77"/>
+      <c r="N89" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="O89" s="80"/>
-      <c r="P89" s="81"/>
-      <c r="Q89" s="79" t="s">
+      <c r="O89" s="76"/>
+      <c r="P89" s="77"/>
+      <c r="Q89" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="R89" s="80"/>
-      <c r="S89" s="81"/>
-      <c r="T89" s="79" t="s">
+      <c r="R89" s="76"/>
+      <c r="S89" s="77"/>
+      <c r="T89" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="U89" s="80"/>
-      <c r="V89" s="81"/>
-      <c r="W89" s="79" t="s">
+      <c r="U89" s="76"/>
+      <c r="V89" s="77"/>
+      <c r="W89" s="75" t="s">
         <v>325</v>
       </c>
-      <c r="X89" s="80"/>
-      <c r="Y89" s="81"/>
-      <c r="Z89" s="79" t="s">
+      <c r="X89" s="76"/>
+      <c r="Y89" s="77"/>
+      <c r="Z89" s="75" t="s">
         <v>330</v>
       </c>
-      <c r="AA89" s="80"/>
-      <c r="AB89" s="81"/>
-      <c r="AC89" s="79" t="s">
+      <c r="AA89" s="76"/>
+      <c r="AB89" s="77"/>
+      <c r="AC89" s="75" t="s">
         <v>335</v>
       </c>
-      <c r="AD89" s="80"/>
-      <c r="AE89" s="81"/>
-      <c r="AF89" s="79" t="s">
+      <c r="AD89" s="76"/>
+      <c r="AE89" s="77"/>
+      <c r="AF89" s="75" t="s">
         <v>337</v>
       </c>
-      <c r="AG89" s="80"/>
-      <c r="AH89" s="81"/>
-      <c r="AI89" s="79" t="s">
+      <c r="AG89" s="76"/>
+      <c r="AH89" s="77"/>
+      <c r="AI89" s="75" t="s">
         <v>340</v>
       </c>
-      <c r="AJ89" s="80"/>
-      <c r="AK89" s="81"/>
-      <c r="AL89" s="79" t="s">
+      <c r="AJ89" s="76"/>
+      <c r="AK89" s="77"/>
+      <c r="AL89" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="AM89" s="80"/>
-      <c r="AN89" s="81"/>
-      <c r="AO89" s="79" t="s">
+      <c r="AM89" s="76"/>
+      <c r="AN89" s="77"/>
+      <c r="AO89" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="AP89" s="80"/>
-      <c r="AQ89" s="81"/>
-      <c r="AR89" s="79" t="s">
+      <c r="AP89" s="76"/>
+      <c r="AQ89" s="77"/>
+      <c r="AR89" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="AS89" s="80"/>
-      <c r="AT89" s="81"/>
-      <c r="AU89" s="79" t="s">
+      <c r="AS89" s="76"/>
+      <c r="AT89" s="77"/>
+      <c r="AU89" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="AV89" s="80"/>
-      <c r="AW89" s="81"/>
-      <c r="AX89" s="79" t="s">
+      <c r="AV89" s="76"/>
+      <c r="AW89" s="77"/>
+      <c r="AX89" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="AY89" s="80"/>
-      <c r="AZ89" s="81"/>
-      <c r="BA89" s="79" t="s">
+      <c r="AY89" s="76"/>
+      <c r="AZ89" s="77"/>
+      <c r="BA89" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="BB89" s="80"/>
-      <c r="BC89" s="81"/>
-      <c r="BD89" s="79" t="s">
+      <c r="BB89" s="76"/>
+      <c r="BC89" s="77"/>
+      <c r="BD89" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="BE89" s="80"/>
-      <c r="BF89" s="81"/>
-      <c r="BG89" s="79" t="s">
+      <c r="BE89" s="76"/>
+      <c r="BF89" s="77"/>
+      <c r="BG89" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="BH89" s="80"/>
-      <c r="BI89" s="81"/>
-      <c r="BJ89" s="79" t="s">
+      <c r="BH89" s="76"/>
+      <c r="BI89" s="77"/>
+      <c r="BJ89" s="75" t="s">
         <v>389</v>
       </c>
-      <c r="BK89" s="80"/>
-      <c r="BL89" s="81"/>
-      <c r="BM89" s="79" t="s">
+      <c r="BK89" s="76"/>
+      <c r="BL89" s="77"/>
+      <c r="BM89" s="75" t="s">
         <v>390</v>
       </c>
-      <c r="BN89" s="80"/>
-      <c r="BO89" s="81"/>
-      <c r="BP89" s="79" t="s">
+      <c r="BN89" s="76"/>
+      <c r="BO89" s="77"/>
+      <c r="BP89" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="BQ89" s="80"/>
-      <c r="BR89" s="81"/>
+      <c r="BQ89" s="76"/>
+      <c r="BR89" s="77"/>
     </row>
   </sheetData>
   <sortState ref="A49:BR50">
     <sortCondition ref="A49"/>
   </sortState>
   <mergeCells count="64">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W89:Y89"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="Z89:AB89"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T89:V89"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="BP89:BR89"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BJ89:BL89"/>
+    <mergeCell ref="BM3:BO3"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BM89:BO89"/>
+    <mergeCell ref="BD3:BF3"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="BD89:BF89"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BG89:BI89"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AX89:AZ89"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BA89:BC89"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AR89:AT89"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AU89:AW89"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI89:AK89"/>
+    <mergeCell ref="AL89:AN89"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO89:AQ89"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC89:AE89"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AF89:AH89"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H89:J89"/>
@@ -23637,48 +23669,18 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K89:M89"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC89:AE89"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AF89:AH89"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AI89:AK89"/>
-    <mergeCell ref="AL89:AN89"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO89:AQ89"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AR89:AT89"/>
-    <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AU89:AW89"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AX89:AZ89"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BA89:BC89"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="BD89:BF89"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BG89:BI89"/>
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="BP89:BR89"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BJ89:BL89"/>
-    <mergeCell ref="BM3:BO3"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BM89:BO89"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T89:V89"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W89:Y89"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z89:AB89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23686,14 +23688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
@@ -23701,12 +23703,12 @@
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -23720,7 +23722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>128</v>
       </c>
@@ -23734,7 +23736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>128</v>
       </c>
@@ -23748,7 +23750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>128</v>
       </c>
@@ -23762,7 +23764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>132</v>
       </c>
@@ -23776,7 +23778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>132</v>
       </c>
@@ -23790,7 +23792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>133</v>
       </c>
@@ -23804,7 +23806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -23818,7 +23820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>136</v>
       </c>
@@ -23832,7 +23834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -23846,7 +23848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -23860,7 +23862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>46</v>
       </c>
@@ -23874,7 +23876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -23888,7 +23890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>143</v>
       </c>
@@ -23902,7 +23904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>64</v>
       </c>
@@ -23916,7 +23918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>144</v>
       </c>
@@ -23930,7 +23932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>221</v>
       </c>
@@ -23944,7 +23946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>221</v>
       </c>
@@ -23964,14 +23966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -23979,12 +23981,12 @@
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -23998,7 +24000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -24012,7 +24014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -24026,7 +24028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -24040,7 +24042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -24054,7 +24056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>157</v>
       </c>
@@ -24074,25 +24076,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="54" t="s">
         <v>24</v>
       </c>
@@ -24109,7 +24111,7 @@
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="54" t="s">
         <v>132</v>
       </c>
@@ -24126,7 +24128,7 @@
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="54" t="s">
         <v>39</v>
       </c>
@@ -24143,7 +24145,7 @@
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>46</v>
       </c>
@@ -24161,7 +24163,7 @@
       <c r="H6" s="33"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -24171,7 +24173,7 @@
       <c r="H7" s="33"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -24181,7 +24183,7 @@
       <c r="H8" s="33"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -24191,7 +24193,7 @@
       <c r="H9" s="33"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -24201,7 +24203,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -24211,7 +24213,7 @@
       <c r="H11" s="33"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -24221,7 +24223,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -24231,7 +24233,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -24241,7 +24243,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
@@ -24251,7 +24253,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -24267,25 +24269,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>350</v>
       </c>
@@ -24299,7 +24301,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -24313,7 +24315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -24327,7 +24329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -24341,7 +24343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -24355,7 +24357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -24369,7 +24371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
@@ -24383,7 +24385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -24397,7 +24399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -24418,20 +24420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>398</v>
       </c>
@@ -24439,7 +24441,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -24453,7 +24455,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>399</v>
       </c>
@@ -24467,7 +24469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>400</v>
       </c>
@@ -24481,7 +24483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>406</v>
       </c>
@@ -24501,21 +24503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -24526,7 +24528,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>404</v>
       </c>
@@ -24537,7 +24539,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>404</v>
       </c>
@@ -24545,7 +24547,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>418</v>
       </c>
@@ -24559,14 +24561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I163"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -24577,12 +24579,12 @@
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -24611,7 +24613,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -24625,7 +24627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -24639,7 +24641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -24653,7 +24655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -24667,7 +24669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -24681,7 +24683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -24695,7 +24697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -24709,7 +24711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -24723,7 +24725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -24737,7 +24739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -24751,7 +24753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -24765,7 +24767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90">
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -24779,7 +24781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -24793,7 +24795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -24807,7 +24809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -24821,7 +24823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -24835,7 +24837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -24849,7 +24851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -24863,7 +24865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -24877,7 +24879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -24891,7 +24893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -24905,7 +24907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -24919,12 +24921,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -24953,7 +24955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -24967,7 +24969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -24981,7 +24983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -24995,7 +24997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -25009,7 +25011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -25023,7 +25025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -25037,7 +25039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -25051,7 +25053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -25065,7 +25067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -25079,7 +25081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -25093,7 +25095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -25107,7 +25109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -25121,7 +25123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -25135,7 +25137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -25149,7 +25151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -25163,12 +25165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -25197,7 +25199,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -25211,7 +25213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -25225,7 +25227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -25239,7 +25241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -25253,7 +25255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -25267,7 +25269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -25281,7 +25283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -25295,12 +25297,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -25329,7 +25331,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -25343,7 +25345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -25357,7 +25359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -25371,7 +25373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -25385,7 +25387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>104</v>
       </c>
@@ -25399,7 +25401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -25413,7 +25415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -25427,7 +25429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -25441,7 +25443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -25455,7 +25457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -25469,7 +25471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>46</v>
       </c>
@@ -25483,7 +25485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>46</v>
       </c>
@@ -25497,7 +25499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -25511,7 +25513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -25525,12 +25527,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -25559,7 +25561,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -25573,7 +25575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -25587,7 +25589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -25601,7 +25603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -25615,7 +25617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -25629,7 +25631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -25643,7 +25645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -25657,12 +25659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -25691,7 +25693,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>128</v>
       </c>
@@ -25705,7 +25707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -25719,7 +25721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>128</v>
       </c>
@@ -25733,7 +25735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -25747,7 +25749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>132</v>
       </c>
@@ -25761,7 +25763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>133</v>
       </c>
@@ -25775,7 +25777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -25789,7 +25791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -25803,7 +25805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="30">
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>46</v>
       </c>
@@ -25817,7 +25819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -25831,7 +25833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -25845,7 +25847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>46</v>
       </c>
@@ -25859,7 +25861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>143</v>
       </c>
@@ -25873,7 +25875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>64</v>
       </c>
@@ -25887,7 +25889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>144</v>
       </c>
@@ -25901,7 +25903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>221</v>
       </c>
@@ -25915,7 +25917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>221</v>
       </c>
@@ -25929,12 +25931,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -25963,7 +25965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>39</v>
       </c>
@@ -25977,7 +25979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>39</v>
       </c>
@@ -25991,7 +25993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>46</v>
       </c>
@@ -26005,7 +26007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -26019,7 +26021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>157</v>
       </c>
@@ -26036,12 +26038,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -26070,7 +26072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="30">
+    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -26084,7 +26086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -26098,7 +26100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="30">
+    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>46</v>
       </c>
@@ -26112,12 +26114,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -26146,7 +26148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -26160,7 +26162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -26174,7 +26176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -26188,7 +26190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -26202,7 +26204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -26216,7 +26218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>39</v>
       </c>
@@ -26230,7 +26232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>39</v>
       </c>
@@ -26244,7 +26246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>39</v>
       </c>
@@ -26258,7 +26260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>46</v>
       </c>
@@ -26272,7 +26274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>46</v>
       </c>
@@ -26286,7 +26288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -26300,7 +26302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>184</v>
       </c>
@@ -26314,7 +26316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>185</v>
       </c>
@@ -26328,7 +26330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>186</v>
       </c>
@@ -26342,7 +26344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>143</v>
       </c>
@@ -26356,7 +26358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>188</v>
       </c>
@@ -26370,12 +26372,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B146" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -26404,7 +26406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>30</v>
       </c>
@@ -26418,7 +26420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -26432,7 +26434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -26446,7 +26448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="30">
+    <row r="151" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -26460,7 +26462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>75</v>
       </c>
@@ -26474,7 +26476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>39</v>
       </c>
@@ -26488,7 +26490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -26502,7 +26504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -26516,7 +26518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>46</v>
       </c>
@@ -26530,7 +26532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>46</v>
       </c>
@@ -26544,7 +26546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>143</v>
       </c>
@@ -26558,7 +26560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>196</v>
       </c>
@@ -26572,7 +26574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>184</v>
       </c>
@@ -26586,7 +26588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>185</v>
       </c>
@@ -26600,7 +26602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>186</v>
       </c>
@@ -26614,7 +26616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>188</v>
       </c>
@@ -26635,29 +26637,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="21">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-    </row>
-    <row r="4" spans="1:9" ht="45">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>197</v>
       </c>
@@ -26686,7 +26688,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>143</v>
       </c>
@@ -26702,7 +26704,7 @@
       <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="74">
         <v>6</v>
       </c>
       <c r="G5">
@@ -26718,7 +26720,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>143</v>
       </c>
@@ -26750,7 +26752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>143</v>
       </c>
@@ -26782,7 +26784,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>270</v>
       </c>
@@ -26814,7 +26816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>270</v>
       </c>
@@ -26846,7 +26848,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>392</v>
       </c>
@@ -26877,7 +26879,7 @@
         <v>471.44</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>393</v>
       </c>
@@ -26908,7 +26910,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>292</v>
       </c>
@@ -26940,7 +26942,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>294</v>
       </c>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>199</v>
       </c>
@@ -26998,7 +27000,7 @@
         <v>7.1279999999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>199</v>
       </c>
@@ -27030,7 +27032,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>199</v>
       </c>
@@ -27062,7 +27064,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>199</v>
       </c>
@@ -27095,7 +27097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>199</v>
       </c>
@@ -27128,7 +27130,7 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>199</v>
       </c>
@@ -27160,7 +27162,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>214</v>
       </c>
@@ -27192,7 +27194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>213</v>
       </c>
@@ -27225,7 +27227,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>236</v>
       </c>
@@ -27257,7 +27259,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>236</v>
       </c>
@@ -27289,7 +27291,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>239</v>
       </c>
@@ -27321,7 +27323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>239</v>
       </c>
@@ -27353,7 +27355,7 @@
         <v>30.36</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>235</v>
       </c>
@@ -27385,7 +27387,7 @@
         <v>3.2659999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>235</v>
       </c>
@@ -27417,7 +27419,7 @@
         <v>6.8999999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>235</v>
       </c>
@@ -27449,7 +27451,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>235</v>
       </c>
@@ -27481,7 +27483,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>235</v>
       </c>
@@ -27509,7 +27511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>235</v>
       </c>
@@ -27541,7 +27543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>235</v>
       </c>
@@ -27573,7 +27575,7 @@
         <v>27.28</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
         <v>360</v>
       </c>
@@ -27605,7 +27607,7 @@
         <v>48.48</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
         <v>359</v>
       </c>
@@ -27637,7 +27639,7 @@
         <v>338.03999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
         <v>361</v>
       </c>
@@ -27669,7 +27671,7 @@
         <v>150.47999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
         <v>362</v>
       </c>
@@ -27690,18 +27692,18 @@
       </c>
       <c r="G36">
         <f>Recapitulatif!H38*Recapitulatif!$J$4+Recapitulatif!K38*Recapitulatif!$M$4+Recapitulatif!N38*Recapitulatif!$P$4+Recapitulatif!Q38*Recapitulatif!$S$4+Recapitulatif!T38*Recapitulatif!$V$4+Recapitulatif!W38*Recapitulatif!$Y$4+Recapitulatif!Z38*Recapitulatif!$AB$4+Recapitulatif!AC38*Recapitulatif!$AE$4+Recapitulatif!AF38*Recapitulatif!$AH$4+Recapitulatif!AI38*Recapitulatif!$AK$4+Recapitulatif!AL38*Recapitulatif!$AN$4+Recapitulatif!AO38*Recapitulatif!$AQ$4+Recapitulatif!AR38*Recapitulatif!$AT$4+Recapitulatif!AU38*Recapitulatif!$AW$4+Recapitulatif!AX38*Recapitulatif!$AZ$4+Recapitulatif!BA38*Recapitulatif!$BC$4+Recapitulatif!BD38*Recapitulatif!$BF$4+Recapitulatif!BG38*Recapitulatif!$BI$4+Recapitulatif!BJ38*Recapitulatif!$BL$4+Recapitulatif!BM38*Recapitulatif!$BO$4+Recapitulatif!BP38*Recapitulatif!$BR$4</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I36" s="62">
         <f t="shared" si="6"/>
-        <v>110.88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>203.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="s">
         <v>366</v>
       </c>
@@ -27733,7 +27735,7 @@
         <v>220.48000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
         <v>368</v>
       </c>
@@ -27765,7 +27767,7 @@
         <v>119.76</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
         <v>369</v>
       </c>
@@ -27786,18 +27788,18 @@
       </c>
       <c r="G39">
         <f>Recapitulatif!H41*Recapitulatif!$J$4+Recapitulatif!K41*Recapitulatif!$M$4+Recapitulatif!N41*Recapitulatif!$P$4+Recapitulatif!Q41*Recapitulatif!$S$4+Recapitulatif!T41*Recapitulatif!$V$4+Recapitulatif!W41*Recapitulatif!$Y$4+Recapitulatif!Z41*Recapitulatif!$AB$4+Recapitulatif!AC41*Recapitulatif!$AE$4+Recapitulatif!AF41*Recapitulatif!$AH$4+Recapitulatif!AI41*Recapitulatif!$AK$4+Recapitulatif!AL41*Recapitulatif!$AN$4+Recapitulatif!AO41*Recapitulatif!$AQ$4+Recapitulatif!AR41*Recapitulatif!$AT$4+Recapitulatif!AU41*Recapitulatif!$AW$4+Recapitulatif!AX41*Recapitulatif!$AZ$4+Recapitulatif!BA41*Recapitulatif!$BC$4+Recapitulatif!BD41*Recapitulatif!$BF$4+Recapitulatif!BG41*Recapitulatif!$BI$4+Recapitulatif!BJ41*Recapitulatif!$BL$4+Recapitulatif!BM41*Recapitulatif!$BO$4+Recapitulatif!BP41*Recapitulatif!$BR$4</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I39" s="62">
         <f t="shared" si="6"/>
-        <v>94.320000000000007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>172.92000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
         <v>367</v>
       </c>
@@ -27829,7 +27831,7 @@
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>253</v>
       </c>
@@ -27861,7 +27863,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>258</v>
       </c>
@@ -27894,7 +27896,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>259</v>
       </c>
@@ -27927,7 +27929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>265</v>
       </c>
@@ -27959,7 +27961,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>249</v>
       </c>
@@ -27991,7 +27993,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>263</v>
       </c>
@@ -28023,7 +28025,7 @@
         <v>0.39599999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>412</v>
       </c>
@@ -28055,7 +28057,7 @@
         <v>17.183999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>408</v>
       </c>
@@ -28087,7 +28089,7 @@
         <v>15.751999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>87</v>
       </c>
@@ -28119,7 +28121,7 @@
         <v>685.76</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>23</v>
       </c>
@@ -28147,7 +28149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>290</v>
       </c>
@@ -28173,7 +28175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>221</v>
       </c>
@@ -28205,7 +28207,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>221</v>
       </c>
@@ -28237,7 +28239,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>283</v>
       </c>
@@ -28269,7 +28271,7 @@
         <v>165.79999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>288</v>
       </c>
@@ -28301,7 +28303,7 @@
         <v>27.88</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>276</v>
       </c>
@@ -28333,7 +28335,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>273</v>
       </c>
@@ -28365,7 +28367,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>63</v>
       </c>
@@ -28397,7 +28399,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>296</v>
       </c>
@@ -28429,7 +28431,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>293</v>
       </c>
@@ -28455,7 +28457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>219</v>
       </c>
@@ -28488,7 +28490,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>219</v>
       </c>
@@ -28520,7 +28522,7 @@
         <v>5.2919999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>219</v>
       </c>
@@ -28552,7 +28554,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>219</v>
       </c>
@@ -28584,7 +28586,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>219</v>
       </c>
@@ -28616,7 +28618,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>219</v>
       </c>
@@ -28649,7 +28651,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>219</v>
       </c>
@@ -28681,7 +28683,7 @@
         <v>4.4820000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>219</v>
       </c>
@@ -28713,7 +28715,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>219</v>
       </c>
@@ -28746,7 +28748,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>219</v>
       </c>
@@ -28778,7 +28780,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>219</v>
       </c>
@@ -28811,7 +28813,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>219</v>
       </c>
@@ -28844,7 +28846,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>220</v>
       </c>
@@ -28876,7 +28878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>220</v>
       </c>
@@ -28908,7 +28910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>424</v>
       </c>
@@ -28940,7 +28942,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>425</v>
       </c>
@@ -28973,7 +28975,7 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>291</v>
       </c>
@@ -28999,7 +29001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>289</v>
       </c>
@@ -29031,7 +29033,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="72" t="s">
         <v>125</v>
       </c>
@@ -29063,7 +29065,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="72" t="s">
         <v>19</v>
       </c>
@@ -29095,7 +29097,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>196</v>
       </c>
@@ -29127,7 +29129,7 @@
         <v>38.400000000000006</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>250</v>
       </c>
@@ -29159,7 +29161,7 @@
         <v>1.7399999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="65" t="s">
         <v>406</v>
       </c>
@@ -29189,7 +29191,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="69" t="s">
         <v>414</v>
       </c>
@@ -29219,21 +29221,21 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F85" s="2" t="s">
         <v>344</v>
       </c>
       <c r="G85">
         <f>SUM(G5:G82)</f>
-        <v>1734</v>
+        <v>1750</v>
       </c>
       <c r="H85">
         <f>SUM(H5:H82)</f>
-        <v>1261</v>
+        <v>1281</v>
       </c>
       <c r="I85" s="62">
         <f>SUM(I5:I82)</f>
-        <v>3327.2279999999992</v>
+        <v>3498.2279999999992</v>
       </c>
     </row>
   </sheetData>
@@ -29248,26 +29250,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -29281,7 +29283,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -29295,7 +29297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -29309,7 +29311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -29323,7 +29325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -29337,7 +29339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -29351,7 +29353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -29365,7 +29367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -29379,7 +29381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -29393,7 +29395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -29407,7 +29409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -29421,7 +29423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -29435,7 +29437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -29449,7 +29451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -29463,7 +29465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -29477,7 +29479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -29491,7 +29493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -29505,7 +29507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -29519,7 +29521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -29533,7 +29535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -29547,7 +29549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -29561,7 +29563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -29575,7 +29577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -29595,14 +29597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="A6:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -29610,12 +29612,12 @@
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -29629,7 +29631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -29643,7 +29645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -29657,7 +29659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -29671,7 +29673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -29685,7 +29687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -29699,7 +29701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -29713,7 +29715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -29727,7 +29729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -29741,7 +29743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -29755,7 +29757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -29769,7 +29771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -29783,7 +29785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -29797,7 +29799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -29811,7 +29813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -29825,7 +29827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -29845,26 +29847,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -29878,7 +29880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -29892,7 +29894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -29906,7 +29908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -29920,7 +29922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -29934,7 +29936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -29948,7 +29950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -29962,7 +29964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -29982,26 +29984,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="B5:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -30015,7 +30017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -30029,7 +30031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -30043,7 +30045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -30057,7 +30059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -30071,7 +30073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>132</v>
       </c>
@@ -30085,7 +30087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -30099,7 +30101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -30113,7 +30115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>39</v>
       </c>
@@ -30127,7 +30129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -30141,7 +30143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>46</v>
       </c>
@@ -30155,7 +30157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>183</v>
       </c>
@@ -30169,7 +30171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>184</v>
       </c>
@@ -30183,7 +30185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>185</v>
       </c>
@@ -30197,7 +30199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>186</v>
       </c>
@@ -30211,7 +30213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>143</v>
       </c>
@@ -30225,7 +30227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>188</v>
       </c>
@@ -30245,14 +30247,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="A3:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -30260,12 +30262,12 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -30279,7 +30281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -30293,7 +30295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -30307,7 +30309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -30321,7 +30323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -30335,7 +30337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -30349,7 +30351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -30363,7 +30365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -30377,7 +30379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -30391,7 +30393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -30405,7 +30407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -30419,7 +30421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -30433,7 +30435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -30447,7 +30449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -30461,7 +30463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -30475,7 +30477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>186</v>
       </c>
@@ -30489,7 +30491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -30509,14 +30511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="A6:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -30524,12 +30526,12 @@
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -30543,7 +30545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -30557,7 +30559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -30571,7 +30573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -30585,7 +30587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -30599,7 +30601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -30613,7 +30615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -30627,7 +30629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -30641,7 +30643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -30655,7 +30657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -30669,7 +30671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -30683,7 +30685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -30697,7 +30699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -30711,7 +30713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -30725,7 +30727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -30745,25 +30747,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -30777,7 +30779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -30791,7 +30793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -30805,7 +30807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>75</v>
       </c>
@@ -30819,7 +30821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -30833,7 +30835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -30847,7 +30849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -30861,7 +30863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>117</v>
       </c>

--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8250"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Recapitulatif" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="432">
   <si>
     <t>C1</t>
   </si>
@@ -1335,6 +1335,18 @@
   </si>
   <si>
     <t>DIP8-7,54</t>
+  </si>
+  <si>
+    <t>Commandé en double</t>
+  </si>
+  <si>
+    <t>Commandé en simple</t>
+  </si>
+  <si>
+    <t>Temps d'appro long</t>
+  </si>
+  <si>
+    <t>Pas commandé</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1425,8 +1437,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1638,12 +1668,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1764,18 +1809,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1787,15 +1841,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -2100,7 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" topLeftCell="BM1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="BT39" sqref="BT39"/>
     </sheetView>
@@ -2160,117 +2217,117 @@
       <c r="AI2" s="54"/>
     </row>
     <row r="3" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="84" t="s">
         <v>304</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="75" t="s">
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="80" t="s">
         <v>319</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="75" t="s">
+      <c r="L3" s="81"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="80" t="s">
         <v>320</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="75" t="s">
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="80" t="s">
         <v>322</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="75" t="s">
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="80" t="s">
         <v>323</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="75" t="s">
+      <c r="U3" s="81"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="75" t="s">
+      <c r="X3" s="81"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="75" t="s">
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="80" t="s">
         <v>335</v>
       </c>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="75" t="s">
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="80" t="s">
         <v>337</v>
       </c>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="75" t="s">
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="83" t="s">
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="83" t="s">
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="83" t="s">
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="83" t="s">
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="83" t="s">
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="85"/>
-      <c r="BA3" s="83" t="s">
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="85"/>
-      <c r="BD3" s="83" t="s">
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="BE3" s="84"/>
-      <c r="BF3" s="85"/>
-      <c r="BG3" s="83" t="s">
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="BH3" s="84"/>
-      <c r="BI3" s="85"/>
-      <c r="BJ3" s="83" t="s">
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="75" t="s">
         <v>389</v>
       </c>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="85"/>
-      <c r="BM3" s="83" t="s">
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="77"/>
+      <c r="BM3" s="75" t="s">
         <v>390</v>
       </c>
-      <c r="BN3" s="84"/>
-      <c r="BO3" s="85"/>
-      <c r="BP3" s="83" t="s">
+      <c r="BN3" s="76"/>
+      <c r="BO3" s="77"/>
+      <c r="BP3" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="BQ3" s="84"/>
-      <c r="BR3" s="85"/>
+      <c r="BQ3" s="76"/>
+      <c r="BR3" s="77"/>
     </row>
     <row r="4" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="I4" s="82"/>
+      <c r="I4" s="85"/>
       <c r="J4" s="37">
         <v>2</v>
       </c>
@@ -2416,15 +2473,15 @@
       </c>
     </row>
     <row r="5" spans="1:70" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="32" t="s">
         <v>302</v>
       </c>
@@ -23506,159 +23563,129 @@
       </c>
     </row>
     <row r="89" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H89" s="81" t="s">
+      <c r="H89" s="84" t="s">
         <v>304</v>
       </c>
-      <c r="I89" s="81"/>
-      <c r="J89" s="81"/>
-      <c r="K89" s="75" t="s">
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="K89" s="80" t="s">
         <v>319</v>
       </c>
-      <c r="L89" s="76"/>
-      <c r="M89" s="77"/>
-      <c r="N89" s="75" t="s">
+      <c r="L89" s="81"/>
+      <c r="M89" s="82"/>
+      <c r="N89" s="80" t="s">
         <v>320</v>
       </c>
-      <c r="O89" s="76"/>
-      <c r="P89" s="77"/>
-      <c r="Q89" s="75" t="s">
+      <c r="O89" s="81"/>
+      <c r="P89" s="82"/>
+      <c r="Q89" s="80" t="s">
         <v>322</v>
       </c>
-      <c r="R89" s="76"/>
-      <c r="S89" s="77"/>
-      <c r="T89" s="75" t="s">
+      <c r="R89" s="81"/>
+      <c r="S89" s="82"/>
+      <c r="T89" s="80" t="s">
         <v>323</v>
       </c>
-      <c r="U89" s="76"/>
-      <c r="V89" s="77"/>
-      <c r="W89" s="75" t="s">
+      <c r="U89" s="81"/>
+      <c r="V89" s="82"/>
+      <c r="W89" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="X89" s="76"/>
-      <c r="Y89" s="77"/>
-      <c r="Z89" s="75" t="s">
+      <c r="X89" s="81"/>
+      <c r="Y89" s="82"/>
+      <c r="Z89" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="AA89" s="76"/>
-      <c r="AB89" s="77"/>
-      <c r="AC89" s="75" t="s">
+      <c r="AA89" s="81"/>
+      <c r="AB89" s="82"/>
+      <c r="AC89" s="80" t="s">
         <v>335</v>
       </c>
-      <c r="AD89" s="76"/>
-      <c r="AE89" s="77"/>
-      <c r="AF89" s="75" t="s">
+      <c r="AD89" s="81"/>
+      <c r="AE89" s="82"/>
+      <c r="AF89" s="80" t="s">
         <v>337</v>
       </c>
-      <c r="AG89" s="76"/>
-      <c r="AH89" s="77"/>
-      <c r="AI89" s="75" t="s">
+      <c r="AG89" s="81"/>
+      <c r="AH89" s="82"/>
+      <c r="AI89" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="AJ89" s="76"/>
-      <c r="AK89" s="77"/>
-      <c r="AL89" s="75" t="s">
+      <c r="AJ89" s="81"/>
+      <c r="AK89" s="82"/>
+      <c r="AL89" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="AM89" s="76"/>
-      <c r="AN89" s="77"/>
-      <c r="AO89" s="75" t="s">
+      <c r="AM89" s="81"/>
+      <c r="AN89" s="82"/>
+      <c r="AO89" s="80" t="s">
         <v>382</v>
       </c>
-      <c r="AP89" s="76"/>
-      <c r="AQ89" s="77"/>
-      <c r="AR89" s="75" t="s">
+      <c r="AP89" s="81"/>
+      <c r="AQ89" s="82"/>
+      <c r="AR89" s="80" t="s">
         <v>383</v>
       </c>
-      <c r="AS89" s="76"/>
-      <c r="AT89" s="77"/>
-      <c r="AU89" s="75" t="s">
+      <c r="AS89" s="81"/>
+      <c r="AT89" s="82"/>
+      <c r="AU89" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="AV89" s="76"/>
-      <c r="AW89" s="77"/>
-      <c r="AX89" s="75" t="s">
+      <c r="AV89" s="81"/>
+      <c r="AW89" s="82"/>
+      <c r="AX89" s="80" t="s">
         <v>385</v>
       </c>
-      <c r="AY89" s="76"/>
-      <c r="AZ89" s="77"/>
-      <c r="BA89" s="75" t="s">
+      <c r="AY89" s="81"/>
+      <c r="AZ89" s="82"/>
+      <c r="BA89" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="BB89" s="76"/>
-      <c r="BC89" s="77"/>
-      <c r="BD89" s="75" t="s">
+      <c r="BB89" s="81"/>
+      <c r="BC89" s="82"/>
+      <c r="BD89" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="BE89" s="76"/>
-      <c r="BF89" s="77"/>
-      <c r="BG89" s="75" t="s">
+      <c r="BE89" s="81"/>
+      <c r="BF89" s="82"/>
+      <c r="BG89" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="BH89" s="76"/>
-      <c r="BI89" s="77"/>
-      <c r="BJ89" s="75" t="s">
+      <c r="BH89" s="81"/>
+      <c r="BI89" s="82"/>
+      <c r="BJ89" s="80" t="s">
         <v>389</v>
       </c>
-      <c r="BK89" s="76"/>
-      <c r="BL89" s="77"/>
-      <c r="BM89" s="75" t="s">
+      <c r="BK89" s="81"/>
+      <c r="BL89" s="82"/>
+      <c r="BM89" s="80" t="s">
         <v>390</v>
       </c>
-      <c r="BN89" s="76"/>
-      <c r="BO89" s="77"/>
-      <c r="BP89" s="75" t="s">
+      <c r="BN89" s="81"/>
+      <c r="BO89" s="82"/>
+      <c r="BP89" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="BQ89" s="76"/>
-      <c r="BR89" s="77"/>
+      <c r="BQ89" s="81"/>
+      <c r="BR89" s="82"/>
     </row>
   </sheetData>
   <sortState ref="A49:BR50">
     <sortCondition ref="A49"/>
   </sortState>
   <mergeCells count="64">
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="BP89:BR89"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BJ89:BL89"/>
-    <mergeCell ref="BM3:BO3"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BM89:BO89"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="BD89:BF89"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BG89:BI89"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AX89:AZ89"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BA89:BC89"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AR89:AT89"/>
-    <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AU89:AW89"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AI89:AK89"/>
-    <mergeCell ref="AL89:AN89"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO89:AQ89"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC89:AE89"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AF89:AH89"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W89:Y89"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z89:AB89"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T89:V89"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H89:J89"/>
@@ -23669,18 +23696,48 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K89:M89"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T89:V89"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W89:Y89"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="Z89:AB89"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC89:AE89"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AF89:AH89"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI89:AK89"/>
+    <mergeCell ref="AL89:AN89"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO89:AQ89"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AR89:AT89"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AU89:AW89"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AX89:AZ89"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BA89:BC89"/>
+    <mergeCell ref="BD3:BF3"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="BD89:BF89"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BG89:BI89"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="BP89:BR89"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BJ89:BL89"/>
+    <mergeCell ref="BM3:BO3"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BM89:BO89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -26638,28 +26695,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I85"/>
+  <dimension ref="A3:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="80" t="s">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>197</v>
       </c>
@@ -26688,8 +26746,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
         <v>143</v>
       </c>
       <c r="B5" s="7">
@@ -26719,8 +26777,12 @@
         <f>H5*F5</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="94"/>
+      <c r="L5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>143</v>
       </c>
@@ -26751,9 +26813,13 @@
         <f t="shared" ref="I6:I10" si="1">H6*F6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="K6" s="95"/>
+      <c r="L6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
         <v>143</v>
       </c>
       <c r="B7" s="11">
@@ -26783,9 +26849,13 @@
         <f t="shared" si="1"/>
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="K7" s="96"/>
+      <c r="L7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87" t="s">
         <v>270</v>
       </c>
       <c r="B8" s="7">
@@ -26815,9 +26885,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="K8" s="97"/>
+      <c r="L8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
         <v>270</v>
       </c>
       <c r="B9" s="7">
@@ -26848,8 +26922,8 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
         <v>392</v>
       </c>
       <c r="B10">
@@ -26868,8 +26942,7 @@
         <v>58.93</v>
       </c>
       <c r="G10">
-        <f>Recapitulatif!H12*Recapitulatif!$J$4+Recapitulatif!K12*Recapitulatif!$M$4+Recapitulatif!N12*Recapitulatif!$P$4+Recapitulatif!Q12*Recapitulatif!$S$4+Recapitulatif!T12*Recapitulatif!$V$4+Recapitulatif!W12*Recapitulatif!$Y$4+Recapitulatif!Z12*Recapitulatif!$AB$4+Recapitulatif!AC12*Recapitulatif!$AE$4+Recapitulatif!AF12*Recapitulatif!$AH$4+Recapitulatif!AI12*Recapitulatif!$AK$4+Recapitulatif!AL12*Recapitulatif!$AN$4+Recapitulatif!AO12*Recapitulatif!$AQ$4+Recapitulatif!AR12*Recapitulatif!$AT$4+Recapitulatif!AU12*Recapitulatif!$AW$4+Recapitulatif!AX12*Recapitulatif!$AZ$4+Recapitulatif!BA12*Recapitulatif!$BC$4+Recapitulatif!BD12*Recapitulatif!$BF$4+Recapitulatif!BG12*Recapitulatif!$BI$4+Recapitulatif!BJ12*Recapitulatif!$BL$4+Recapitulatif!BM12*Recapitulatif!$BO$4+Recapitulatif!BP12*Recapitulatif!$BR$4</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -26879,8 +26952,8 @@
         <v>471.44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="93" t="s">
         <v>393</v>
       </c>
       <c r="B11">
@@ -26910,8 +26983,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="90" t="s">
         <v>292</v>
       </c>
       <c r="B12" s="7">
@@ -26942,7 +27015,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>294</v>
       </c>
@@ -26968,7 +27041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>199</v>
       </c>
@@ -27000,8 +27073,8 @@
         <v>7.1279999999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
         <v>199</v>
       </c>
       <c r="B15" s="7">
@@ -27032,8 +27105,8 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="87" t="s">
         <v>199</v>
       </c>
       <c r="B16" s="7">
@@ -27065,7 +27138,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="87" t="s">
         <v>199</v>
       </c>
       <c r="B17" s="7">
@@ -27098,7 +27171,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="87" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="7">
@@ -27131,7 +27204,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="87" t="s">
         <v>199</v>
       </c>
       <c r="B19" s="7">
@@ -27163,7 +27236,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="87" t="s">
         <v>214</v>
       </c>
       <c r="B20" s="7">
@@ -27195,7 +27268,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="87" t="s">
         <v>213</v>
       </c>
       <c r="B21" s="7">
@@ -27228,7 +27301,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="87" t="s">
         <v>236</v>
       </c>
       <c r="B22" s="7">
@@ -27260,7 +27333,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="87" t="s">
         <v>236</v>
       </c>
       <c r="B23" s="7">
@@ -27292,7 +27365,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="87" t="s">
         <v>239</v>
       </c>
       <c r="B24" s="7">
@@ -27324,7 +27397,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="87" t="s">
         <v>239</v>
       </c>
       <c r="B25" s="7">
@@ -27356,7 +27429,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="87" t="s">
         <v>235</v>
       </c>
       <c r="B26" s="7">
@@ -27388,7 +27461,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="87" t="s">
         <v>235</v>
       </c>
       <c r="B27" s="7">
@@ -27452,7 +27525,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="87" t="s">
         <v>235</v>
       </c>
       <c r="B29" s="7">
@@ -27512,7 +27585,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="87" t="s">
         <v>235</v>
       </c>
       <c r="B31" s="7">
@@ -27544,7 +27617,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="87" t="s">
         <v>235</v>
       </c>
       <c r="B32" s="7">
@@ -27832,7 +27905,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="87" t="s">
         <v>253</v>
       </c>
       <c r="B41" s="7">
@@ -27864,7 +27937,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="87" t="s">
         <v>258</v>
       </c>
       <c r="B42" s="7">
@@ -27897,7 +27970,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="87" t="s">
         <v>259</v>
       </c>
       <c r="B43" s="7">
@@ -27930,7 +28003,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="87" t="s">
         <v>265</v>
       </c>
       <c r="B44" s="7">
@@ -27962,7 +28035,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="87" t="s">
         <v>249</v>
       </c>
       <c r="B45" s="7">
@@ -27994,7 +28067,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="87" t="s">
         <v>263</v>
       </c>
       <c r="B46" s="7">
@@ -28026,7 +28099,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="93" t="s">
         <v>412</v>
       </c>
       <c r="B47">
@@ -28058,7 +28131,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="93" t="s">
         <v>408</v>
       </c>
       <c r="B48">
@@ -28090,7 +28163,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="87" t="s">
         <v>87</v>
       </c>
       <c r="B49" s="7">
@@ -28176,7 +28249,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="87" t="s">
         <v>221</v>
       </c>
       <c r="B52" s="7">
@@ -28208,7 +28281,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="87" t="s">
         <v>221</v>
       </c>
       <c r="B53" s="7">
@@ -28240,7 +28313,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="88" t="s">
         <v>283</v>
       </c>
       <c r="B54" s="11">
@@ -28272,7 +28345,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="88" t="s">
         <v>288</v>
       </c>
       <c r="B55" s="11">
@@ -28304,7 +28377,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B56" s="7">
@@ -28336,7 +28409,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="87" t="s">
         <v>273</v>
       </c>
       <c r="B57" s="7">
@@ -28368,7 +28441,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="87" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="7">
@@ -28400,7 +28473,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="88" t="s">
         <v>296</v>
       </c>
       <c r="B59" s="11">
@@ -28458,7 +28531,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="86" t="s">
         <v>219</v>
       </c>
       <c r="B61" s="7">
@@ -28491,7 +28564,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="87" t="s">
         <v>219</v>
       </c>
       <c r="B62" s="7">
@@ -28619,7 +28692,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="86" t="s">
         <v>219</v>
       </c>
       <c r="B66" s="7">
@@ -28652,7 +28725,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="87" t="s">
         <v>219</v>
       </c>
       <c r="B67" s="7">
@@ -28716,7 +28789,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="87" t="s">
         <v>219</v>
       </c>
       <c r="B69" s="7">
@@ -28781,7 +28854,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="87" t="s">
         <v>219</v>
       </c>
       <c r="B71" s="7">
@@ -28814,7 +28887,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="86" t="s">
         <v>219</v>
       </c>
       <c r="B72" s="7">
@@ -28847,7 +28920,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="72" t="s">
         <v>220</v>
       </c>
       <c r="B73" s="7">
@@ -28911,7 +28984,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="72" t="s">
         <v>424</v>
       </c>
       <c r="B75" s="21">
@@ -28943,7 +29016,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="86" t="s">
         <v>425</v>
       </c>
       <c r="B76" s="21">
@@ -29002,7 +29075,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="90" t="s">
         <v>289</v>
       </c>
       <c r="B78" s="21">
@@ -29034,7 +29107,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="72" t="s">
+      <c r="A79" s="87" t="s">
         <v>125</v>
       </c>
       <c r="B79" s="72">
@@ -29066,7 +29139,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="72" t="s">
+      <c r="A80" s="87" t="s">
         <v>19</v>
       </c>
       <c r="B80" s="72">
@@ -29098,7 +29171,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="88" t="s">
         <v>196</v>
       </c>
       <c r="B81" s="11">
@@ -29162,7 +29235,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="65" t="s">
+      <c r="A83" s="92" t="s">
         <v>406</v>
       </c>
       <c r="B83" s="21">
@@ -29192,7 +29265,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="91" t="s">
         <v>414</v>
       </c>
       <c r="B84" s="15">
@@ -29227,7 +29300,7 @@
       </c>
       <c r="G85">
         <f>SUM(G5:G82)</f>
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H85">
         <f>SUM(H5:H82)</f>
@@ -29246,6 +29319,7 @@
     <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8250" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Recapitulatif" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="440">
   <si>
     <t>C1</t>
   </si>
@@ -1347,6 +1347,30 @@
   </si>
   <si>
     <t>Pas commandé</t>
+  </si>
+  <si>
+    <t>Ref Fabricant</t>
+  </si>
+  <si>
+    <t>1897C SL005</t>
+  </si>
+  <si>
+    <t>Bobine 30m</t>
+  </si>
+  <si>
+    <t>100 m</t>
+  </si>
+  <si>
+    <t>CAT6AUFTP4PRIC</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>FARNELL</t>
+  </si>
+  <si>
+    <t>OMBILICABLE</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR89"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" topLeftCell="BM1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="BT39" sqref="BT39"/>
     </sheetView>
@@ -24561,20 +24585,26 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -24584,8 +24614,20 @@
       <c r="D3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>404</v>
       </c>
@@ -24593,23 +24635,59 @@
         <v>405</v>
       </c>
       <c r="D4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>404</v>
       </c>
       <c r="C5" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G5" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>418</v>
       </c>
       <c r="C6" t="s">
         <v>419</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F6">
+        <v>1619545</v>
+      </c>
+      <c r="G6" t="s">
+        <v>433</v>
+      </c>
+      <c r="H6" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>

--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8250" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Recapitulatif" sheetId="4" r:id="rId1"/>
@@ -725,31 +725,13 @@
     <t>MCMF0W4FF1000A50</t>
   </si>
   <si>
-    <t>MCMF0W4FF2200A50</t>
-  </si>
-  <si>
-    <t>MCMF0W4FF3600A50</t>
-  </si>
-  <si>
-    <t>MCMF0W4FF3300A50</t>
-  </si>
-  <si>
     <t>RN60D1001F</t>
   </si>
   <si>
-    <t>CMF1/44991FLFTR</t>
-  </si>
-  <si>
     <t>MF25 10K</t>
   </si>
   <si>
     <t>MF25 20K</t>
-  </si>
-  <si>
-    <t>PR03000201802JAC00</t>
-  </si>
-  <si>
-    <t>PR03000202702JAC00</t>
   </si>
   <si>
     <t>Connecteur droit mâle</t>
@@ -989,9 +971,6 @@
     <t>R10,R17,R18,R21,R24,R25,R26,R29,R32,R33,R34,R37,R40,R41</t>
   </si>
   <si>
-    <t>CMF1/41502FLFTR</t>
-  </si>
-  <si>
     <t>15k</t>
   </si>
   <si>
@@ -1371,6 +1350,27 @@
   </si>
   <si>
     <t>OMBILICABLE</t>
+  </si>
+  <si>
+    <t>MCF 0.25W 220R</t>
+  </si>
+  <si>
+    <t>MCF 0.25W 330R</t>
+  </si>
+  <si>
+    <t>MF25 360R</t>
+  </si>
+  <si>
+    <t>UPW25B5K0V</t>
+  </si>
+  <si>
+    <t>MCF 0.25W 15K</t>
+  </si>
+  <si>
+    <t>ROX3SJ12K</t>
+  </si>
+  <si>
+    <t>ROX3SJ27K</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1869,6 +1869,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1877,6 +1878,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -2181,9 +2183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" topLeftCell="BM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT39" sqref="BT39"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,10 +2233,10 @@
         <v>206</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Z2" s="52" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AC2" s="54"/>
       <c r="AF2" s="54"/>
@@ -2242,254 +2244,254 @@
     </row>
     <row r="3" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H3" s="84" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I3" s="84"/>
       <c r="J3" s="84"/>
       <c r="K3" s="80" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L3" s="81"/>
       <c r="M3" s="82"/>
       <c r="N3" s="80" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O3" s="81"/>
       <c r="P3" s="82"/>
       <c r="Q3" s="80" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="R3" s="81"/>
       <c r="S3" s="82"/>
       <c r="T3" s="80" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="U3" s="81"/>
       <c r="V3" s="82"/>
       <c r="W3" s="80" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="X3" s="81"/>
       <c r="Y3" s="82"/>
       <c r="Z3" s="80" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AA3" s="81"/>
       <c r="AB3" s="82"/>
       <c r="AC3" s="80" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AD3" s="81"/>
       <c r="AE3" s="82"/>
       <c r="AF3" s="80" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AG3" s="81"/>
       <c r="AH3" s="82"/>
       <c r="AI3" s="80" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AJ3" s="81"/>
       <c r="AK3" s="82"/>
       <c r="AL3" s="75" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AM3" s="76"/>
       <c r="AN3" s="77"/>
       <c r="AO3" s="75" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AP3" s="76"/>
       <c r="AQ3" s="77"/>
       <c r="AR3" s="75" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AS3" s="76"/>
       <c r="AT3" s="77"/>
       <c r="AU3" s="75" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AV3" s="76"/>
       <c r="AW3" s="77"/>
       <c r="AX3" s="75" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AY3" s="76"/>
       <c r="AZ3" s="77"/>
       <c r="BA3" s="75" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="BB3" s="76"/>
       <c r="BC3" s="77"/>
       <c r="BD3" s="75" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="BE3" s="76"/>
       <c r="BF3" s="77"/>
       <c r="BG3" s="75" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="BH3" s="76"/>
       <c r="BI3" s="77"/>
       <c r="BJ3" s="75" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="BK3" s="76"/>
       <c r="BL3" s="77"/>
       <c r="BM3" s="75" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="BN3" s="76"/>
       <c r="BO3" s="77"/>
       <c r="BP3" s="75" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="BQ3" s="76"/>
       <c r="BR3" s="77"/>
     </row>
     <row r="4" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H4" s="85" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I4" s="85"/>
       <c r="J4" s="37">
         <v>2</v>
       </c>
       <c r="K4" s="78" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L4" s="79"/>
       <c r="M4" s="38">
         <v>2</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="O4" s="79"/>
       <c r="P4" s="38">
         <v>2</v>
       </c>
       <c r="Q4" s="78" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="R4" s="79"/>
       <c r="S4" s="38">
         <v>2</v>
       </c>
       <c r="T4" s="78" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="U4" s="79"/>
       <c r="V4" s="38">
         <v>2</v>
       </c>
       <c r="W4" s="78" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="X4" s="79"/>
       <c r="Y4" s="38">
         <v>2</v>
       </c>
       <c r="Z4" s="78" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AA4" s="79"/>
       <c r="AB4" s="38">
         <v>2</v>
       </c>
       <c r="AC4" s="78" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AD4" s="79"/>
       <c r="AE4" s="38">
         <v>1</v>
       </c>
       <c r="AF4" s="78" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AG4" s="79"/>
       <c r="AH4" s="38">
         <v>20</v>
       </c>
       <c r="AI4" s="78" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AJ4" s="79"/>
       <c r="AK4" s="38">
         <v>4</v>
       </c>
       <c r="AL4" s="78" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AM4" s="79"/>
       <c r="AN4" s="66">
         <v>1</v>
       </c>
       <c r="AO4" s="78" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AP4" s="79"/>
       <c r="AQ4" s="66">
         <v>1</v>
       </c>
       <c r="AR4" s="78" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AS4" s="79"/>
       <c r="AT4" s="66">
         <v>1</v>
       </c>
       <c r="AU4" s="78" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AV4" s="79"/>
       <c r="AW4" s="66">
         <v>1</v>
       </c>
       <c r="AX4" s="78" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AY4" s="79"/>
       <c r="AZ4" s="66">
         <v>1</v>
       </c>
       <c r="BA4" s="78" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="BB4" s="79"/>
       <c r="BC4" s="66">
         <v>1</v>
       </c>
       <c r="BD4" s="78" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="BE4" s="79"/>
       <c r="BF4" s="66">
         <v>1</v>
       </c>
       <c r="BG4" s="78" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="BH4" s="79"/>
       <c r="BI4" s="66">
         <v>1</v>
       </c>
       <c r="BJ4" s="78" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="BK4" s="79"/>
       <c r="BL4" s="66">
         <v>1</v>
       </c>
       <c r="BM4" s="78" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="BN4" s="79"/>
       <c r="BO4" s="66">
         <v>1</v>
       </c>
       <c r="BP4" s="78" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="BQ4" s="79"/>
       <c r="BR4" s="66">
@@ -2507,193 +2509,193 @@
       <c r="F5" s="83"/>
       <c r="G5" s="83"/>
       <c r="H5" s="32" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="S5" s="41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="T5" s="39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="U5" s="40" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="V5" s="41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="W5" s="39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="X5" s="40" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Y5" s="41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AA5" s="40" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AB5" s="41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AC5" s="39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AD5" s="40" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AE5" s="41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AF5" s="39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AG5" s="40" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AH5" s="41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AI5" s="39" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AJ5" s="40" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AK5" s="41" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AL5" s="39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AM5" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AN5" s="67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AO5" s="39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AP5" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AQ5" s="67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AR5" s="39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AS5" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AT5" s="67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AU5" s="39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AV5" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AW5" s="67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AX5" s="39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AY5" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AZ5" s="67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BA5" s="39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="BB5" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="BC5" s="67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BD5" s="39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="BE5" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="BF5" s="67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BG5" s="39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="BH5" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="BI5" s="67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BJ5" s="39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="BK5" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="BL5" s="67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BM5" s="39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="BN5" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="BO5" s="67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BP5" s="39" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="BQ5" s="40" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="BR5" s="67" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
@@ -2701,10 +2703,10 @@
         <v>197</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>25</v>
@@ -2787,10 +2789,10 @@
         <v>1007558</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -3042,7 +3044,7 @@
         <v>1261398</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D8" s="28">
         <v>7805</v>
@@ -3297,7 +3299,7 @@
         <v>1523798</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>98</v>
@@ -3546,16 +3548,16 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B10" s="7">
         <v>1564954</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
@@ -3801,16 +3803,16 @@
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B11" s="7">
         <v>9486810</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
@@ -4056,16 +4058,16 @@
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B12">
         <v>1896827</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E12" s="33">
         <v>1</v>
@@ -4311,16 +4313,16 @@
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B13">
         <v>1850790</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E13" s="33">
         <v>1</v>
@@ -4566,13 +4568,13 @@
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B14" s="7">
         <v>3938414</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>169</v>
@@ -4821,7 +4823,7 @@
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="24"/>
@@ -7113,13 +7115,13 @@
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B24" s="7">
         <v>1756797</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>43</v>
@@ -7368,13 +7370,13 @@
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B25" s="7">
         <v>1756798</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>42</v>
@@ -7623,16 +7625,16 @@
     </row>
     <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B26" s="7">
         <v>9138625</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E26" s="8">
         <v>1</v>
@@ -7878,16 +7880,16 @@
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B27" s="7">
         <v>9138633</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E27" s="8">
         <v>1</v>
@@ -8133,13 +8135,13 @@
     </row>
     <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B28" s="7">
         <v>1462926</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>43</v>
@@ -8388,13 +8390,13 @@
     </row>
     <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B29" s="7">
         <v>1756796</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>42</v>
@@ -8643,16 +8645,16 @@
     </row>
     <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B30" s="7">
         <v>1686335</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E30" s="33">
         <v>1</v>
@@ -8898,13 +8900,13 @@
     </row>
     <row r="31" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B31" s="7">
         <v>1756805</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>38</v>
@@ -9153,7 +9155,7 @@
     </row>
     <row r="32" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="25"/>
@@ -9404,16 +9406,16 @@
     </row>
     <row r="33" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B33" s="7">
         <v>1099254</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
@@ -9659,16 +9661,16 @@
     </row>
     <row r="34" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B34" s="7">
         <v>9838260</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E34" s="8">
         <v>1</v>
@@ -9914,16 +9916,16 @@
     </row>
     <row r="35" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B35" s="21">
         <v>1122589</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E35" s="33">
         <v>1</v>
@@ -10169,16 +10171,16 @@
     </row>
     <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B36" s="21">
         <v>1122582</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E36" s="33">
         <v>1</v>
@@ -10424,16 +10426,16 @@
     </row>
     <row r="37" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B37" s="21">
         <v>1122584</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E37" s="33">
         <v>1</v>
@@ -10679,16 +10681,16 @@
     </row>
     <row r="38" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B38" s="21">
         <v>1122811</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E38" s="33">
         <v>1</v>
@@ -10934,16 +10936,16 @@
     </row>
     <row r="39" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B39" s="21">
         <v>1122602</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E39" s="33">
         <v>1</v>
@@ -11189,16 +11191,16 @@
     </row>
     <row r="40" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B40" s="21">
         <v>1122604</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E40" s="33">
         <v>1</v>
@@ -11444,16 +11446,16 @@
     </row>
     <row r="41" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B41" s="21">
         <v>1122820</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E41" s="33">
         <v>1</v>
@@ -11699,16 +11701,16 @@
     </row>
     <row r="42" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B42" s="21">
         <v>1122595</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E42" s="33">
         <v>1</v>
@@ -11954,16 +11956,16 @@
     </row>
     <row r="43" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B43" s="7">
         <v>1003198</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E43" s="8">
         <v>5</v>
@@ -12209,16 +12211,16 @@
     </row>
     <row r="44" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B44" s="7">
         <v>1003196</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E44" s="8">
         <v>5</v>
@@ -12465,16 +12467,16 @@
     </row>
     <row r="45" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B45" s="7">
         <v>1003199</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E45" s="8">
         <v>5</v>
@@ -12721,16 +12723,16 @@
     </row>
     <row r="46" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B46" s="7">
         <v>1612346</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E46" s="8">
         <v>1</v>
@@ -12976,16 +12978,16 @@
     </row>
     <row r="47" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B47" s="7">
         <v>1861455</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E47" s="8">
         <v>1</v>
@@ -13231,16 +13233,16 @@
     </row>
     <row r="48" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B48" s="7">
         <v>1861447</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
@@ -13486,16 +13488,16 @@
     </row>
     <row r="49" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B49">
         <v>1466761</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E49" s="33">
         <v>4</v>
@@ -13741,16 +13743,16 @@
     </row>
     <row r="50" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B50">
         <v>1466855</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E50" s="33">
         <v>4</v>
@@ -14002,10 +14004,10 @@
         <v>1617416</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E51" s="33">
         <v>1</v>
@@ -14502,7 +14504,7 @@
     </row>
     <row r="53" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="24"/>
@@ -14757,10 +14759,10 @@
         <v>1021247</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E54" s="8">
         <v>1</v>
@@ -15012,10 +15014,10 @@
         <v>9994904</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E55" s="8">
         <v>1</v>
@@ -15261,16 +15263,16 @@
     </row>
     <row r="56" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B56" s="11">
         <v>9321276</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E56" s="8">
         <v>1</v>
@@ -15516,16 +15518,16 @@
     </row>
     <row r="57" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B57" s="11">
         <v>9321373</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E57" s="8">
         <v>1</v>
@@ -15771,13 +15773,13 @@
     </row>
     <row r="58" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B58" s="7">
         <v>9755560</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D58" s="27">
         <v>4069</v>
@@ -16026,13 +16028,13 @@
     </row>
     <row r="59" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B59" s="7">
         <v>1739899</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D59" s="27">
         <v>4001</v>
@@ -16287,7 +16289,7 @@
         <v>1689852</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>16</v>
@@ -16536,16 +16538,16 @@
     </row>
     <row r="61" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B61" s="11">
         <v>1611856</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E61" s="8">
         <v>1</v>
@@ -16791,7 +16793,7 @@
     </row>
     <row r="62" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="24"/>
@@ -17550,27 +17552,27 @@
       </c>
     </row>
     <row r="65" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B65" s="7">
-        <v>1126953</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>226</v>
+      <c r="B65" s="21">
+        <v>9339299</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="D65" s="27">
         <v>220</v>
       </c>
       <c r="E65" s="8">
-        <v>1</v>
-      </c>
-      <c r="F65" s="12">
-        <v>6.4000000000000001E-2</v>
+        <v>50</v>
+      </c>
+      <c r="F65" s="57">
+        <v>1.2</v>
       </c>
       <c r="G65" s="31">
         <f t="shared" si="44"/>
-        <v>6.4000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -17610,11 +17612,11 @@
       </c>
       <c r="R65" s="44">
         <f t="shared" si="7"/>
-        <v>0.192</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="S65" s="45">
         <f t="shared" si="8"/>
-        <v>0.38400000000000001</v>
+        <v>0.14400000000000002</v>
       </c>
       <c r="T65" s="42">
         <v>0</v>
@@ -17805,38 +17807,38 @@
       </c>
     </row>
     <row r="66" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B66" s="7">
-        <v>1126972</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>228</v>
+      <c r="B66" s="21">
+        <v>9339418</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>434</v>
       </c>
       <c r="D66" s="27">
         <v>330</v>
       </c>
       <c r="E66" s="8">
-        <v>1</v>
-      </c>
-      <c r="F66" s="12">
-        <v>6.4000000000000001E-2</v>
+        <v>50</v>
+      </c>
+      <c r="F66" s="57">
+        <v>1.2</v>
       </c>
       <c r="G66" s="31">
         <f t="shared" si="44"/>
-        <v>6.4000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H66">
         <v>4</v>
       </c>
       <c r="I66" s="34">
         <f t="shared" si="1"/>
-        <v>0.25600000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J66" s="34">
         <f t="shared" si="2"/>
-        <v>0.51200000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="K66" s="42">
         <v>0</v>
@@ -18060,27 +18062,28 @@
       </c>
     </row>
     <row r="67" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="7">
-        <v>1126978</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>227</v>
+      <c r="B67" s="21">
+        <v>9341790</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="D67" s="27">
         <v>360</v>
       </c>
       <c r="E67" s="8">
-        <v>1</v>
-      </c>
-      <c r="F67" s="12">
-        <v>5.3999999999999999E-2</v>
+        <v>50</v>
+      </c>
+      <c r="F67" s="57">
+        <f>0.019*50</f>
+        <v>0.95</v>
       </c>
       <c r="G67" s="31">
         <f t="shared" si="44"/>
-        <v>5.3999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -18142,11 +18145,11 @@
       </c>
       <c r="X67" s="44">
         <f t="shared" si="11"/>
-        <v>0.216</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="Y67" s="45">
         <f t="shared" si="12"/>
-        <v>0.432</v>
+        <v>0.152</v>
       </c>
       <c r="Z67" s="42">
         <v>0</v>
@@ -18315,14 +18318,14 @@
       </c>
     </row>
     <row r="68" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="21">
         <v>9342001</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>329</v>
+      <c r="C68" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="D68" s="27">
         <v>510</v>
@@ -18571,14 +18574,14 @@
       </c>
     </row>
     <row r="69" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="21">
         <v>1652663</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>229</v>
+      <c r="C69" s="65" t="s">
+        <v>226</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>124</v>
@@ -18826,14 +18829,14 @@
       </c>
     </row>
     <row r="70" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B70" s="7">
-        <v>1416872</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>230</v>
+      <c r="B70" s="21">
+        <v>1754850</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>436</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>217</v>
@@ -18841,23 +18844,23 @@
       <c r="E70" s="8">
         <v>1</v>
       </c>
-      <c r="F70" s="12">
-        <v>2.5999999999999999E-2</v>
+      <c r="F70" s="57">
+        <v>5.78</v>
       </c>
       <c r="G70" s="31">
         <f t="shared" si="44"/>
-        <v>2.5999999999999999E-2</v>
+        <v>5.78</v>
       </c>
       <c r="H70">
         <v>14</v>
       </c>
       <c r="I70" s="34">
         <f t="shared" si="1"/>
-        <v>0.36399999999999999</v>
+        <v>80.92</v>
       </c>
       <c r="J70" s="34">
         <f t="shared" si="2"/>
-        <v>0.72799999999999998</v>
+        <v>161.84</v>
       </c>
       <c r="K70" s="42">
         <v>0</v>
@@ -19081,14 +19084,14 @@
       </c>
     </row>
     <row r="71" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="21">
         <v>9341110</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>231</v>
+      <c r="C71" s="65" t="s">
+        <v>227</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>16</v>
@@ -19337,38 +19340,39 @@
       </c>
     </row>
     <row r="72" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B72" s="7">
-        <v>1416762</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>313</v>
+      <c r="B72" s="21">
+        <v>9339191</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E72" s="33">
-        <v>1</v>
-      </c>
-      <c r="F72" s="12">
-        <v>2.5999999999999999E-2</v>
+        <v>50</v>
+      </c>
+      <c r="F72" s="57">
+        <f>0.024*50</f>
+        <v>1.2</v>
       </c>
       <c r="G72" s="31">
         <f t="shared" si="44"/>
-        <v>2.5999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H72">
         <v>3</v>
       </c>
       <c r="I72" s="34">
         <f t="shared" si="1"/>
-        <v>7.8E-2</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="J72" s="34">
         <f t="shared" si="2"/>
-        <v>0.156</v>
+        <v>0.14400000000000002</v>
       </c>
       <c r="K72" s="42">
         <v>0</v>
@@ -19592,14 +19596,14 @@
       </c>
     </row>
     <row r="73" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="21">
         <v>9341498</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>232</v>
+      <c r="C73" s="65" t="s">
+        <v>228</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>218</v>
@@ -19848,17 +19852,17 @@
       </c>
     </row>
     <row r="74" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="21">
         <v>9339558</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>338</v>
+      <c r="C74" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E74" s="33">
         <v>50</v>
@@ -20087,27 +20091,27 @@
       </c>
     </row>
     <row r="75" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="B75" s="7">
-        <v>1498450</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>233</v>
+      <c r="B75" s="21">
+        <v>1738703</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>222</v>
       </c>
       <c r="E75" s="8">
-        <v>1</v>
-      </c>
-      <c r="F75" s="12">
-        <v>0.75</v>
+        <v>10</v>
+      </c>
+      <c r="F75" s="57">
+        <v>2</v>
       </c>
       <c r="G75" s="31">
         <f t="shared" si="44"/>
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -20136,11 +20140,11 @@
       </c>
       <c r="O75" s="44">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="P75" s="45">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="Q75" s="42">
         <v>0</v>
@@ -20342,27 +20346,27 @@
       </c>
     </row>
     <row r="76" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B76" s="7">
-        <v>3226207</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>234</v>
+      <c r="B76" s="21">
+        <v>1738708</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>223</v>
       </c>
       <c r="E76" s="8">
-        <v>1</v>
-      </c>
-      <c r="F76" s="12">
-        <v>0.75</v>
+        <v>10</v>
+      </c>
+      <c r="F76" s="57">
+        <v>2</v>
       </c>
       <c r="G76" s="31">
         <f t="shared" si="44"/>
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -20391,11 +20395,11 @@
       </c>
       <c r="O76" s="44">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="P76" s="45">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="Q76" s="42">
         <v>0</v>
@@ -20598,16 +20602,16 @@
     </row>
     <row r="77" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B77" s="21">
         <v>1103837</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E77" s="33">
         <v>17</v>
@@ -20853,16 +20857,16 @@
     </row>
     <row r="78" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B78" s="21">
         <v>1103855</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E78" s="33">
         <v>5</v>
@@ -21109,7 +21113,7 @@
     </row>
     <row r="79" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="22"/>
@@ -21358,16 +21362,16 @@
     </row>
     <row r="80" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B80" s="21">
         <v>1077344</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E80" s="33">
         <v>1</v>
@@ -21619,10 +21623,10 @@
         <v>1284269</v>
       </c>
       <c r="C81" s="73" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D81" s="73" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E81" s="8">
         <v>1</v>
@@ -21874,10 +21878,10 @@
         <v>1205017</v>
       </c>
       <c r="C82" s="73" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D82" s="73" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E82" s="8">
         <v>1</v>
@@ -22129,7 +22133,7 @@
         <v>1439745</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D83" s="28" t="s">
         <v>168</v>
@@ -22378,16 +22382,16 @@
     </row>
     <row r="84" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B84" s="7">
         <v>1268655</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E84" s="8">
         <v>1</v>
@@ -22633,16 +22637,16 @@
     </row>
     <row r="85" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A85" s="65" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B85" s="21">
         <v>1877102</v>
       </c>
       <c r="C85" s="65" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D85" s="65" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E85" s="7">
         <v>100</v>
@@ -22888,16 +22892,16 @@
     </row>
     <row r="86" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A86" s="69" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B86" s="15">
         <v>1420015</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E86" s="16">
         <v>100</v>
@@ -23148,11 +23152,11 @@
       </c>
       <c r="I87" s="36">
         <f t="shared" si="90"/>
-        <v>61.959999999999994</v>
+        <v>142.35</v>
       </c>
       <c r="J87" s="36">
         <f t="shared" si="90"/>
-        <v>123.91999999999999</v>
+        <v>284.7</v>
       </c>
       <c r="K87" s="46">
         <f t="shared" si="90"/>
@@ -23172,11 +23176,11 @@
       </c>
       <c r="O87" s="51">
         <f t="shared" si="90"/>
-        <v>346.96699999999998</v>
+        <v>344.76699999999994</v>
       </c>
       <c r="P87" s="47">
         <f t="shared" si="90"/>
-        <v>693.93399999999997</v>
+        <v>689.53399999999988</v>
       </c>
       <c r="Q87" s="46">
         <f t="shared" si="90"/>
@@ -23184,11 +23188,11 @@
       </c>
       <c r="R87" s="51">
         <f t="shared" si="90"/>
-        <v>3.3222941176470586</v>
+        <v>3.2022941176470585</v>
       </c>
       <c r="S87" s="47">
         <f t="shared" si="90"/>
-        <v>6.6445882352941172</v>
+        <v>6.404588235294117</v>
       </c>
       <c r="T87" s="46">
         <f t="shared" si="90"/>
@@ -23208,11 +23212,11 @@
       </c>
       <c r="X87" s="51">
         <f t="shared" si="90"/>
-        <v>64.120294117647063</v>
+        <v>63.980294117647063</v>
       </c>
       <c r="Y87" s="47">
         <f t="shared" si="90"/>
-        <v>128.24058823529413</v>
+        <v>127.96058823529413</v>
       </c>
       <c r="Z87" s="46">
         <f t="shared" si="90"/>
@@ -23397,298 +23401,298 @@
     </row>
     <row r="88" spans="1:70" x14ac:dyDescent="0.25">
       <c r="H88" s="6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="N88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="O88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="R88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="S88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="T88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="U88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="V88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="W88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="X88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="Y88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Z88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AA88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AB88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AC88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AD88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AE88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AF88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AG88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AH88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AI88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AJ88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AK88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AL88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AM88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AO88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AP88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AQ88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AR88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AS88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AT88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AU88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AV88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AW88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AX88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AY88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AZ88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BA88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="BB88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BC88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BD88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="BE88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BF88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BG88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="BH88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BI88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BJ88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="BK88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BL88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BM88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="BN88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BO88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="BP88" s="48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="BQ88" s="49" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BR88" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H89" s="84" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I89" s="84"/>
       <c r="J89" s="84"/>
       <c r="K89" s="80" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L89" s="81"/>
       <c r="M89" s="82"/>
       <c r="N89" s="80" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O89" s="81"/>
       <c r="P89" s="82"/>
       <c r="Q89" s="80" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="R89" s="81"/>
       <c r="S89" s="82"/>
       <c r="T89" s="80" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="U89" s="81"/>
       <c r="V89" s="82"/>
       <c r="W89" s="80" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="X89" s="81"/>
       <c r="Y89" s="82"/>
       <c r="Z89" s="80" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AA89" s="81"/>
       <c r="AB89" s="82"/>
       <c r="AC89" s="80" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AD89" s="81"/>
       <c r="AE89" s="82"/>
       <c r="AF89" s="80" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AG89" s="81"/>
       <c r="AH89" s="82"/>
       <c r="AI89" s="80" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AJ89" s="81"/>
       <c r="AK89" s="82"/>
       <c r="AL89" s="80" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AM89" s="81"/>
       <c r="AN89" s="82"/>
       <c r="AO89" s="80" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AP89" s="81"/>
       <c r="AQ89" s="82"/>
       <c r="AR89" s="80" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AS89" s="81"/>
       <c r="AT89" s="82"/>
       <c r="AU89" s="80" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="AV89" s="81"/>
       <c r="AW89" s="82"/>
       <c r="AX89" s="80" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AY89" s="81"/>
       <c r="AZ89" s="82"/>
       <c r="BA89" s="80" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="BB89" s="81"/>
       <c r="BC89" s="82"/>
       <c r="BD89" s="80" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="BE89" s="81"/>
       <c r="BF89" s="82"/>
       <c r="BG89" s="80" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="BH89" s="81"/>
       <c r="BI89" s="82"/>
       <c r="BJ89" s="80" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="BK89" s="81"/>
       <c r="BL89" s="82"/>
       <c r="BM89" s="80" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="BN89" s="81"/>
       <c r="BO89" s="82"/>
       <c r="BP89" s="80" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="BQ89" s="81"/>
       <c r="BR89" s="82"/>
@@ -23923,7 +23927,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -24197,10 +24201,10 @@
         <v>132</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E4" s="54">
         <v>14</v>
@@ -24234,7 +24238,7 @@
         <v>163</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E6" s="33">
         <v>14</v>
@@ -24365,21 +24369,21 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -24387,10 +24391,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E4">
         <v>43</v>
@@ -24401,10 +24405,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E5">
         <v>43</v>
@@ -24415,10 +24419,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D6" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -24429,10 +24433,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -24443,10 +24447,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D8" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -24457,10 +24461,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -24471,10 +24475,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D10" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -24485,10 +24489,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -24505,7 +24509,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24516,10 +24520,10 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -24527,24 +24531,24 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F4">
         <v>44</v>
@@ -24552,13 +24556,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F5">
         <v>40</v>
@@ -24566,13 +24570,13 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -24587,7 +24591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -24601,7 +24605,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -24609,85 +24613,85 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G3" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H5" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C6" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F6">
         <v>1619545</v>
       </c>
       <c r="G6" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H6" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -26775,8 +26779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26800,10 +26804,10 @@
         <v>197</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>25</v>
@@ -26815,13 +26819,13 @@
         <v>202</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -26832,10 +26836,10 @@
         <v>1007558</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -26855,9 +26859,9 @@
         <f>H5*F5</f>
         <v>120</v>
       </c>
-      <c r="K5" s="94"/>
+      <c r="K5" s="95"/>
       <c r="L5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -26868,7 +26872,7 @@
         <v>1261398</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D6" s="28">
         <v>7805</v>
@@ -26891,9 +26895,9 @@
         <f t="shared" ref="I6:I10" si="1">H6*F6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="95"/>
+      <c r="K6" s="96"/>
       <c r="L6" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26904,7 +26908,7 @@
         <v>1523798</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>98</v>
@@ -26927,23 +26931,23 @@
         <f t="shared" si="1"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="K7" s="96"/>
+      <c r="K7" s="97"/>
       <c r="L7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="87" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B8" s="7">
         <v>1564954</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
@@ -26963,23 +26967,23 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K8" s="97"/>
+      <c r="K8" s="98"/>
       <c r="L8" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B9" s="7">
         <v>9486810</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -27002,16 +27006,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="89" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B10">
         <v>1896827</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E10" s="33">
         <v>1</v>
@@ -27031,17 +27035,17 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
-        <v>393</v>
+      <c r="A11" s="94" t="s">
+        <v>386</v>
       </c>
       <c r="B11">
         <v>1850790</v>
       </c>
       <c r="C11" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E11" s="33">
         <v>1</v>
@@ -27062,14 +27066,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
-        <v>292</v>
+      <c r="A12" s="91" t="s">
+        <v>286</v>
       </c>
       <c r="B12" s="7">
         <v>3938414</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>169</v>
@@ -27095,7 +27099,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="24"/>
@@ -27380,13 +27384,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B22" s="7">
         <v>1756797</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>43</v>
@@ -27412,13 +27416,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="87" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B23" s="7">
         <v>1756798</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>42</v>
@@ -27444,16 +27448,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="87" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B24" s="7">
         <v>9138625</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
@@ -27476,16 +27480,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="87" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B25" s="7">
         <v>9138633</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -27508,13 +27512,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B26" s="7">
         <v>1462926</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>43</v>
@@ -27540,13 +27544,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="87" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B27" s="7">
         <v>1756796</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>42</v>
@@ -27572,16 +27576,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B28" s="7">
         <v>1686335</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E28" s="33">
         <v>1</v>
@@ -27604,13 +27608,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B29" s="7">
         <v>1756805</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>38</v>
@@ -27636,7 +27640,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="25"/>
@@ -27664,16 +27668,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B31" s="7">
         <v>1099254</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E31" s="8">
         <v>1</v>
@@ -27696,16 +27700,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B32" s="7">
         <v>9838260</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E32" s="8">
         <v>1</v>
@@ -27728,16 +27732,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B33" s="21">
         <v>1122589</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E33" s="33">
         <v>1</v>
@@ -27760,16 +27764,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B34" s="21">
         <v>1122582</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E34" s="33">
         <v>1</v>
@@ -27792,16 +27796,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B35" s="21">
         <v>1122584</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E35" s="33">
         <v>1</v>
@@ -27824,16 +27828,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B36" s="21">
         <v>1122811</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E36" s="33">
         <v>1</v>
@@ -27856,16 +27860,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B37" s="21">
         <v>1122602</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E37" s="33">
         <v>1</v>
@@ -27888,16 +27892,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B38" s="21">
         <v>1122604</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E38" s="33">
         <v>1</v>
@@ -27920,16 +27924,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B39" s="21">
         <v>1122820</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E39" s="33">
         <v>1</v>
@@ -27952,16 +27956,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B40" s="21">
         <v>1122595</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E40" s="33">
         <v>1</v>
@@ -27984,16 +27988,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B41" s="7">
         <v>1003198</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E41" s="8">
         <v>5</v>
@@ -28016,16 +28020,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="87" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B42" s="7">
         <v>1003196</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E42" s="8">
         <v>5</v>
@@ -28049,16 +28053,16 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="87" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B43" s="7">
         <v>1003199</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E43" s="8">
         <v>5</v>
@@ -28082,16 +28086,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="87" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B44" s="7">
         <v>1612346</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E44" s="8">
         <v>1</v>
@@ -28114,16 +28118,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="87" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B45" s="7">
         <v>1861455</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E45" s="8">
         <v>1</v>
@@ -28146,16 +28150,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="87" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B46" s="7">
         <v>1861447</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E46" s="8">
         <v>1</v>
@@ -28177,17 +28181,17 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="93" t="s">
-        <v>412</v>
+      <c r="A47" s="94" t="s">
+        <v>405</v>
       </c>
       <c r="B47">
         <v>1466761</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E47" s="33">
         <v>4</v>
@@ -28209,17 +28213,17 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="93" t="s">
-        <v>408</v>
+      <c r="A48" s="94" t="s">
+        <v>401</v>
       </c>
       <c r="B48">
         <v>1466855</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E48" s="33">
         <v>4</v>
@@ -28248,10 +28252,10 @@
         <v>1617416</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E49" s="33">
         <v>1</v>
@@ -28302,7 +28306,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="24"/>
@@ -28334,10 +28338,10 @@
         <v>1021247</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E52" s="8">
         <v>1</v>
@@ -28366,10 +28370,10 @@
         <v>9994904</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E53" s="8">
         <v>1</v>
@@ -28392,16 +28396,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="88" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B54" s="11">
         <v>9321276</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E54" s="8">
         <v>1</v>
@@ -28424,16 +28428,16 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="88" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B55" s="11">
         <v>9321373</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E55" s="8">
         <v>1</v>
@@ -28456,13 +28460,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="87" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B56" s="7">
         <v>9755560</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D56" s="27">
         <v>4069</v>
@@ -28488,13 +28492,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="87" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B57" s="7">
         <v>1739899</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D57" s="27">
         <v>4001</v>
@@ -28526,7 +28530,7 @@
         <v>1689852</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>16</v>
@@ -28552,16 +28556,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="88" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B59" s="11">
         <v>1611856</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E59" s="8">
         <v>1</v>
@@ -28584,7 +28588,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="24"/>
@@ -28645,10 +28649,10 @@
       <c r="A62" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="21">
         <v>1652641</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="65" t="s">
         <v>225</v>
       </c>
       <c r="D62" s="27">
@@ -28674,23 +28678,23 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B63" s="7">
-        <v>1126953</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>226</v>
+      <c r="B63" s="21">
+        <v>9339299</v>
+      </c>
+      <c r="C63" t="s">
+        <v>433</v>
       </c>
       <c r="D63" s="27">
         <v>220</v>
       </c>
       <c r="E63" s="8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F63" s="57">
-        <v>6.4000000000000001E-2</v>
+        <v>1.2</v>
       </c>
       <c r="G63">
         <f>Recapitulatif!H65*Recapitulatif!$J$4+Recapitulatif!K65*Recapitulatif!$M$4+Recapitulatif!N65*Recapitulatif!$P$4+Recapitulatif!Q65*Recapitulatif!$S$4+Recapitulatif!T65*Recapitulatif!$V$4+Recapitulatif!W65*Recapitulatif!$Y$4+Recapitulatif!Z65*Recapitulatif!$AB$4+Recapitulatif!AC65*Recapitulatif!$AE$4+Recapitulatif!AF65*Recapitulatif!$AH$4+Recapitulatif!AI65*Recapitulatif!$AK$4+Recapitulatif!AL65*Recapitulatif!$AN$4+Recapitulatif!AO65*Recapitulatif!$AQ$4+Recapitulatif!AR65*Recapitulatif!$AT$4+Recapitulatif!AU65*Recapitulatif!$AW$4+Recapitulatif!AX65*Recapitulatif!$AZ$4+Recapitulatif!BA65*Recapitulatif!$BC$4+Recapitulatif!BD65*Recapitulatif!$BF$4+Recapitulatif!BG65*Recapitulatif!$BI$4+Recapitulatif!BJ65*Recapitulatif!$BL$4+Recapitulatif!BM65*Recapitulatif!$BO$4+Recapitulatif!BP65*Recapitulatif!$BR$4</f>
@@ -28698,31 +28702,31 @@
       </c>
       <c r="H63">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I63" s="62">
         <f t="shared" si="8"/>
-        <v>0.38400000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="7">
-        <v>1126972</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>228</v>
+      <c r="B64" s="21">
+        <v>9339418</v>
+      </c>
+      <c r="C64" t="s">
+        <v>434</v>
       </c>
       <c r="D64" s="27">
         <v>330</v>
       </c>
       <c r="E64" s="8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F64" s="57">
-        <v>6.4000000000000001E-2</v>
+        <v>1.2</v>
       </c>
       <c r="G64">
         <f>Recapitulatif!H66*Recapitulatif!$J$4+Recapitulatif!K66*Recapitulatif!$M$4+Recapitulatif!N66*Recapitulatif!$P$4+Recapitulatif!Q66*Recapitulatif!$S$4+Recapitulatif!T66*Recapitulatif!$V$4+Recapitulatif!W66*Recapitulatif!$Y$4+Recapitulatif!Z66*Recapitulatif!$AB$4+Recapitulatif!AC66*Recapitulatif!$AE$4+Recapitulatif!AF66*Recapitulatif!$AH$4+Recapitulatif!AI66*Recapitulatif!$AK$4+Recapitulatif!AL66*Recapitulatif!$AN$4+Recapitulatif!AO66*Recapitulatif!$AQ$4+Recapitulatif!AR66*Recapitulatif!$AT$4+Recapitulatif!AU66*Recapitulatif!$AW$4+Recapitulatif!AX66*Recapitulatif!$AZ$4+Recapitulatif!BA66*Recapitulatif!$BC$4+Recapitulatif!BD66*Recapitulatif!$BF$4+Recapitulatif!BG66*Recapitulatif!$BI$4+Recapitulatif!BJ66*Recapitulatif!$BL$4+Recapitulatif!BM66*Recapitulatif!$BO$4+Recapitulatif!BP66*Recapitulatif!$BR$4</f>
@@ -28730,31 +28734,32 @@
       </c>
       <c r="H64">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I64" s="62">
         <f t="shared" si="8"/>
-        <v>0.51200000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B65" s="7">
-        <v>1126978</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>227</v>
+      <c r="B65" s="21">
+        <v>9341790</v>
+      </c>
+      <c r="C65" t="s">
+        <v>435</v>
       </c>
       <c r="D65" s="27">
         <v>360</v>
       </c>
       <c r="E65" s="8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F65" s="57">
-        <v>5.3999999999999999E-2</v>
+        <f>0.019*50</f>
+        <v>0.95</v>
       </c>
       <c r="G65">
         <f>Recapitulatif!H67*Recapitulatif!$J$4+Recapitulatif!K67*Recapitulatif!$M$4+Recapitulatif!N67*Recapitulatif!$P$4+Recapitulatif!Q67*Recapitulatif!$S$4+Recapitulatif!T67*Recapitulatif!$V$4+Recapitulatif!W67*Recapitulatif!$Y$4+Recapitulatif!Z67*Recapitulatif!$AB$4+Recapitulatif!AC67*Recapitulatif!$AE$4+Recapitulatif!AF67*Recapitulatif!$AH$4+Recapitulatif!AI67*Recapitulatif!$AK$4+Recapitulatif!AL67*Recapitulatif!$AN$4+Recapitulatif!AO67*Recapitulatif!$AQ$4+Recapitulatif!AR67*Recapitulatif!$AT$4+Recapitulatif!AU67*Recapitulatif!$AW$4+Recapitulatif!AX67*Recapitulatif!$AZ$4+Recapitulatif!BA67*Recapitulatif!$BC$4+Recapitulatif!BD67*Recapitulatif!$BF$4+Recapitulatif!BG67*Recapitulatif!$BI$4+Recapitulatif!BJ67*Recapitulatif!$BL$4+Recapitulatif!BM67*Recapitulatif!$BO$4+Recapitulatif!BP67*Recapitulatif!$BR$4</f>
@@ -28762,22 +28767,22 @@
       </c>
       <c r="H65">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I65" s="62">
         <f t="shared" si="8"/>
-        <v>0.432</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="86" t="s">
+      <c r="A66" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="21">
         <v>9342001</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>329</v>
+      <c r="C66" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="D66" s="27">
         <v>510</v>
@@ -28803,14 +28808,14 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="21">
         <v>1652663</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>229</v>
+      <c r="C67" s="65" t="s">
+        <v>226</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>124</v>
@@ -28835,14 +28840,14 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B68" s="7">
-        <v>1416872</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>230</v>
+      <c r="B68" s="21">
+        <v>1754850</v>
+      </c>
+      <c r="C68" t="s">
+        <v>436</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>217</v>
@@ -28851,7 +28856,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="57">
-        <v>2.5999999999999999E-2</v>
+        <v>5.78</v>
       </c>
       <c r="G68">
         <f>Recapitulatif!H70*Recapitulatif!$J$4+Recapitulatif!K70*Recapitulatif!$M$4+Recapitulatif!N70*Recapitulatif!$P$4+Recapitulatif!Q70*Recapitulatif!$S$4+Recapitulatif!T70*Recapitulatif!$V$4+Recapitulatif!W70*Recapitulatif!$Y$4+Recapitulatif!Z70*Recapitulatif!$AB$4+Recapitulatif!AC70*Recapitulatif!$AE$4+Recapitulatif!AF70*Recapitulatif!$AH$4+Recapitulatif!AI70*Recapitulatif!$AK$4+Recapitulatif!AL70*Recapitulatif!$AN$4+Recapitulatif!AO70*Recapitulatif!$AQ$4+Recapitulatif!AR70*Recapitulatif!$AT$4+Recapitulatif!AU70*Recapitulatif!$AW$4+Recapitulatif!AX70*Recapitulatif!$AZ$4+Recapitulatif!BA70*Recapitulatif!$BC$4+Recapitulatif!BD70*Recapitulatif!$BF$4+Recapitulatif!BG70*Recapitulatif!$BI$4+Recapitulatif!BJ70*Recapitulatif!$BL$4+Recapitulatif!BM70*Recapitulatif!$BO$4+Recapitulatif!BP70*Recapitulatif!$BR$4</f>
@@ -28863,18 +28868,18 @@
       </c>
       <c r="I68" s="62">
         <f t="shared" si="8"/>
-        <v>0.72799999999999998</v>
+        <v>161.84</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="87" t="s">
+      <c r="A69" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="21">
         <v>9341110</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>231</v>
+      <c r="C69" s="65" t="s">
+        <v>227</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>16</v>
@@ -28900,23 +28905,24 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B70" s="7">
-        <v>1416762</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>313</v>
+      <c r="B70" s="21">
+        <v>9339191</v>
+      </c>
+      <c r="C70" t="s">
+        <v>437</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E70" s="33">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F70" s="57">
-        <v>2.5999999999999999E-2</v>
+        <f>0.024*50</f>
+        <v>1.2</v>
       </c>
       <c r="G70">
         <f>Recapitulatif!H72*Recapitulatif!$J$4+Recapitulatif!K72*Recapitulatif!$M$4+Recapitulatif!N72*Recapitulatif!$P$4+Recapitulatif!Q72*Recapitulatif!$S$4+Recapitulatif!T72*Recapitulatif!$V$4+Recapitulatif!W72*Recapitulatif!$Y$4+Recapitulatif!Z72*Recapitulatif!$AB$4+Recapitulatif!AC72*Recapitulatif!$AE$4+Recapitulatif!AF72*Recapitulatif!$AH$4+Recapitulatif!AI72*Recapitulatif!$AK$4+Recapitulatif!AL72*Recapitulatif!$AN$4+Recapitulatif!AO72*Recapitulatif!$AQ$4+Recapitulatif!AR72*Recapitulatif!$AT$4+Recapitulatif!AU72*Recapitulatif!$AW$4+Recapitulatif!AX72*Recapitulatif!$AZ$4+Recapitulatif!BA72*Recapitulatif!$BC$4+Recapitulatif!BD72*Recapitulatif!$BF$4+Recapitulatif!BG72*Recapitulatif!$BI$4+Recapitulatif!BJ72*Recapitulatif!$BL$4+Recapitulatif!BM72*Recapitulatif!$BO$4+Recapitulatif!BP72*Recapitulatif!$BR$4</f>
@@ -28924,22 +28930,22 @@
       </c>
       <c r="H70">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I70" s="62">
         <f t="shared" si="8"/>
-        <v>0.156</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="87" t="s">
+      <c r="A71" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="21">
         <v>9341498</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>232</v>
+      <c r="C71" s="65" t="s">
+        <v>228</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>218</v>
@@ -28965,17 +28971,17 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="86" t="s">
+      <c r="A72" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="21">
         <v>9339558</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>338</v>
+      <c r="C72" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E72" s="33">
         <v>50</v>
@@ -28998,23 +29004,23 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="B73" s="7">
-        <v>1498450</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>233</v>
+      <c r="B73" s="21">
+        <v>1738703</v>
+      </c>
+      <c r="C73" t="s">
+        <v>438</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>222</v>
       </c>
       <c r="E73" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F73" s="57">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="G73">
         <f>Recapitulatif!H75*Recapitulatif!$J$4+Recapitulatif!K75*Recapitulatif!$M$4+Recapitulatif!N75*Recapitulatif!$P$4+Recapitulatif!Q75*Recapitulatif!$S$4+Recapitulatif!T75*Recapitulatif!$V$4+Recapitulatif!W75*Recapitulatif!$Y$4+Recapitulatif!Z75*Recapitulatif!$AB$4+Recapitulatif!AC75*Recapitulatif!$AE$4+Recapitulatif!AF75*Recapitulatif!$AH$4+Recapitulatif!AI75*Recapitulatif!$AK$4+Recapitulatif!AL75*Recapitulatif!$AN$4+Recapitulatif!AO75*Recapitulatif!$AQ$4+Recapitulatif!AR75*Recapitulatif!$AT$4+Recapitulatif!AU75*Recapitulatif!$AW$4+Recapitulatif!AX75*Recapitulatif!$AZ$4+Recapitulatif!BA75*Recapitulatif!$BC$4+Recapitulatif!BD75*Recapitulatif!$BF$4+Recapitulatif!BG75*Recapitulatif!$BI$4+Recapitulatif!BJ75*Recapitulatif!$BL$4+Recapitulatif!BM75*Recapitulatif!$BO$4+Recapitulatif!BP75*Recapitulatif!$BR$4</f>
@@ -29022,31 +29028,31 @@
       </c>
       <c r="H73">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I73" s="62">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B74" s="7">
-        <v>3226207</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>234</v>
+      <c r="B74" s="21">
+        <v>1738708</v>
+      </c>
+      <c r="C74" t="s">
+        <v>439</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>223</v>
       </c>
       <c r="E74" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74" s="57">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="G74">
         <f>Recapitulatif!H76*Recapitulatif!$J$4+Recapitulatif!K76*Recapitulatif!$M$4+Recapitulatif!N76*Recapitulatif!$P$4+Recapitulatif!Q76*Recapitulatif!$S$4+Recapitulatif!T76*Recapitulatif!$V$4+Recapitulatif!W76*Recapitulatif!$Y$4+Recapitulatif!Z76*Recapitulatif!$AB$4+Recapitulatif!AC76*Recapitulatif!$AE$4+Recapitulatif!AF76*Recapitulatif!$AH$4+Recapitulatif!AI76*Recapitulatif!$AK$4+Recapitulatif!AL76*Recapitulatif!$AN$4+Recapitulatif!AO76*Recapitulatif!$AQ$4+Recapitulatif!AR76*Recapitulatif!$AT$4+Recapitulatif!AU76*Recapitulatif!$AW$4+Recapitulatif!AX76*Recapitulatif!$AZ$4+Recapitulatif!BA76*Recapitulatif!$BC$4+Recapitulatif!BD76*Recapitulatif!$BF$4+Recapitulatif!BG76*Recapitulatif!$BI$4+Recapitulatif!BJ76*Recapitulatif!$BL$4+Recapitulatif!BM76*Recapitulatif!$BO$4+Recapitulatif!BP76*Recapitulatif!$BR$4</f>
@@ -29054,25 +29060,25 @@
       </c>
       <c r="H74">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I74" s="62">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="72" t="s">
-        <v>424</v>
+      <c r="A75" s="73" t="s">
+        <v>417</v>
       </c>
       <c r="B75" s="21">
         <v>1103837</v>
       </c>
-      <c r="C75" s="21" t="s">
-        <v>420</v>
+      <c r="C75" s="65" t="s">
+        <v>413</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E75" s="33">
         <v>17</v>
@@ -29094,17 +29100,17 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="86" t="s">
-        <v>425</v>
+      <c r="A76" s="94" t="s">
+        <v>418</v>
       </c>
       <c r="B76" s="21">
         <v>1103855</v>
       </c>
-      <c r="C76" s="21" t="s">
-        <v>422</v>
+      <c r="C76" s="65" t="s">
+        <v>415</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E76" s="33">
         <v>5</v>
@@ -29128,10 +29134,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="22"/>
+        <v>285</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="99"/>
       <c r="D77" s="22"/>
       <c r="E77" s="33">
         <v>1</v>
@@ -29153,17 +29159,17 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="90" t="s">
-        <v>289</v>
+      <c r="A78" s="91" t="s">
+        <v>283</v>
       </c>
       <c r="B78" s="21">
         <v>1077344</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E78" s="33">
         <v>1</v>
@@ -29192,10 +29198,10 @@
         <v>1284269</v>
       </c>
       <c r="C79" s="73" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D79" s="73" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E79" s="8">
         <v>1</v>
@@ -29224,10 +29230,10 @@
         <v>1205017</v>
       </c>
       <c r="C80" s="73" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D80" s="73" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E80" s="8">
         <v>1</v>
@@ -29256,7 +29262,7 @@
         <v>1439745</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D81" s="28" t="s">
         <v>168</v>
@@ -29282,16 +29288,16 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B82" s="7">
         <v>1268655</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E82" s="8">
         <v>1</v>
@@ -29313,17 +29319,17 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="92" t="s">
-        <v>406</v>
+      <c r="A83" s="93" t="s">
+        <v>399</v>
       </c>
       <c r="B83" s="21">
         <v>1877102</v>
       </c>
       <c r="C83" s="65" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D83" s="65" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E83" s="7">
         <v>100</v>
@@ -29343,17 +29349,17 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="91" t="s">
-        <v>414</v>
+      <c r="A84" s="92" t="s">
+        <v>407</v>
       </c>
       <c r="B84" s="15">
         <v>1420015</v>
       </c>
       <c r="C84" s="69" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E84" s="16">
         <v>100</v>
@@ -29374,7 +29380,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F85" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G85">
         <f>SUM(G5:G82)</f>
@@ -29382,11 +29388,11 @@
       </c>
       <c r="H85">
         <f>SUM(H5:H82)</f>
-        <v>1281</v>
+        <v>1251</v>
       </c>
       <c r="I85" s="62">
         <f>SUM(I5:I82)</f>
-        <v>3498.2279999999992</v>
+        <v>3660.4059999999986</v>
       </c>
     </row>
   </sheetData>
@@ -29429,10 +29435,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -29471,7 +29477,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -29485,7 +29491,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D8">
         <v>17</v>
@@ -29513,7 +29519,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -29555,7 +29561,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -29597,7 +29603,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D16">
         <v>25</v>
@@ -29653,7 +29659,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D20">
         <v>14</v>
@@ -30230,7 +30236,7 @@
         <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D9" t="s">
         <v>114</v>
@@ -30483,7 +30489,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -30494,7 +30500,7 @@
         <v>75</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>

--- a/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
+++ b/KiCad/2012_HypnoZ/Part_List_RISM.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="441">
   <si>
     <t>C1</t>
   </si>
@@ -1371,6 +1371,9 @@
   </si>
   <si>
     <t>ROX3SJ27K</t>
+  </si>
+  <si>
+    <t>Problème commande</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1832,39 +1835,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1879,6 +1849,40 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -2243,271 +2247,271 @@
       <c r="AI2" s="54"/>
     </row>
     <row r="3" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="80" t="s">
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="80" t="s">
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="80" t="s">
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="R3" s="81"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="80" t="s">
+      <c r="R3" s="90"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="U3" s="81"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="80" t="s">
+      <c r="U3" s="90"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="80" t="s">
+      <c r="X3" s="90"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="80" t="s">
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="80" t="s">
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="80" t="s">
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="75" t="s">
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="91"/>
+      <c r="AL3" s="97" t="s">
         <v>371</v>
       </c>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="77"/>
-      <c r="AO3" s="75" t="s">
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="97" t="s">
         <v>375</v>
       </c>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="75" t="s">
+      <c r="AP3" s="98"/>
+      <c r="AQ3" s="99"/>
+      <c r="AR3" s="97" t="s">
         <v>376</v>
       </c>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="77"/>
-      <c r="AU3" s="75" t="s">
+      <c r="AS3" s="98"/>
+      <c r="AT3" s="99"/>
+      <c r="AU3" s="97" t="s">
         <v>377</v>
       </c>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="77"/>
-      <c r="AX3" s="75" t="s">
+      <c r="AV3" s="98"/>
+      <c r="AW3" s="99"/>
+      <c r="AX3" s="97" t="s">
         <v>378</v>
       </c>
-      <c r="AY3" s="76"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="75" t="s">
+      <c r="AY3" s="98"/>
+      <c r="AZ3" s="99"/>
+      <c r="BA3" s="97" t="s">
         <v>379</v>
       </c>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="77"/>
-      <c r="BD3" s="75" t="s">
+      <c r="BB3" s="98"/>
+      <c r="BC3" s="99"/>
+      <c r="BD3" s="97" t="s">
         <v>380</v>
       </c>
-      <c r="BE3" s="76"/>
-      <c r="BF3" s="77"/>
-      <c r="BG3" s="75" t="s">
+      <c r="BE3" s="98"/>
+      <c r="BF3" s="99"/>
+      <c r="BG3" s="97" t="s">
         <v>381</v>
       </c>
-      <c r="BH3" s="76"/>
-      <c r="BI3" s="77"/>
-      <c r="BJ3" s="75" t="s">
+      <c r="BH3" s="98"/>
+      <c r="BI3" s="99"/>
+      <c r="BJ3" s="97" t="s">
         <v>382</v>
       </c>
-      <c r="BK3" s="76"/>
-      <c r="BL3" s="77"/>
-      <c r="BM3" s="75" t="s">
+      <c r="BK3" s="98"/>
+      <c r="BL3" s="99"/>
+      <c r="BM3" s="97" t="s">
         <v>383</v>
       </c>
-      <c r="BN3" s="76"/>
-      <c r="BO3" s="77"/>
-      <c r="BP3" s="75" t="s">
+      <c r="BN3" s="98"/>
+      <c r="BO3" s="99"/>
+      <c r="BP3" s="97" t="s">
         <v>384</v>
       </c>
-      <c r="BQ3" s="76"/>
-      <c r="BR3" s="77"/>
+      <c r="BQ3" s="98"/>
+      <c r="BR3" s="99"/>
     </row>
     <row r="4" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="96" t="s">
         <v>311</v>
       </c>
-      <c r="I4" s="85"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="37">
         <v>2</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="L4" s="79"/>
+      <c r="L4" s="93"/>
       <c r="M4" s="38">
         <v>2</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="O4" s="79"/>
+      <c r="O4" s="93"/>
       <c r="P4" s="38">
         <v>2</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="R4" s="79"/>
+      <c r="R4" s="93"/>
       <c r="S4" s="38">
         <v>2</v>
       </c>
-      <c r="T4" s="78" t="s">
+      <c r="T4" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="U4" s="79"/>
+      <c r="U4" s="93"/>
       <c r="V4" s="38">
         <v>2</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="X4" s="79"/>
+      <c r="X4" s="93"/>
       <c r="Y4" s="38">
         <v>2</v>
       </c>
-      <c r="Z4" s="78" t="s">
+      <c r="Z4" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="AA4" s="79"/>
+      <c r="AA4" s="93"/>
       <c r="AB4" s="38">
         <v>2</v>
       </c>
-      <c r="AC4" s="78" t="s">
+      <c r="AC4" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="AD4" s="79"/>
+      <c r="AD4" s="93"/>
       <c r="AE4" s="38">
         <v>1</v>
       </c>
-      <c r="AF4" s="78" t="s">
+      <c r="AF4" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="AG4" s="79"/>
+      <c r="AG4" s="93"/>
       <c r="AH4" s="38">
         <v>20</v>
       </c>
-      <c r="AI4" s="78" t="s">
+      <c r="AI4" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="AJ4" s="79"/>
+      <c r="AJ4" s="93"/>
       <c r="AK4" s="38">
         <v>4</v>
       </c>
-      <c r="AL4" s="78" t="s">
+      <c r="AL4" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="AM4" s="79"/>
+      <c r="AM4" s="93"/>
       <c r="AN4" s="66">
         <v>1</v>
       </c>
-      <c r="AO4" s="78" t="s">
+      <c r="AO4" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="AP4" s="79"/>
+      <c r="AP4" s="93"/>
       <c r="AQ4" s="66">
         <v>1</v>
       </c>
-      <c r="AR4" s="78" t="s">
+      <c r="AR4" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="AS4" s="79"/>
+      <c r="AS4" s="93"/>
       <c r="AT4" s="66">
         <v>1</v>
       </c>
-      <c r="AU4" s="78" t="s">
+      <c r="AU4" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="AV4" s="79"/>
+      <c r="AV4" s="93"/>
       <c r="AW4" s="66">
         <v>1</v>
       </c>
-      <c r="AX4" s="78" t="s">
+      <c r="AX4" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="AY4" s="79"/>
+      <c r="AY4" s="93"/>
       <c r="AZ4" s="66">
         <v>1</v>
       </c>
-      <c r="BA4" s="78" t="s">
+      <c r="BA4" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="BB4" s="79"/>
+      <c r="BB4" s="93"/>
       <c r="BC4" s="66">
         <v>1</v>
       </c>
-      <c r="BD4" s="78" t="s">
+      <c r="BD4" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="BE4" s="79"/>
+      <c r="BE4" s="93"/>
       <c r="BF4" s="66">
         <v>1</v>
       </c>
-      <c r="BG4" s="78" t="s">
+      <c r="BG4" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="BH4" s="79"/>
+      <c r="BH4" s="93"/>
       <c r="BI4" s="66">
         <v>1</v>
       </c>
-      <c r="BJ4" s="78" t="s">
+      <c r="BJ4" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="BK4" s="79"/>
+      <c r="BK4" s="93"/>
       <c r="BL4" s="66">
         <v>1</v>
       </c>
-      <c r="BM4" s="78" t="s">
+      <c r="BM4" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="BN4" s="79"/>
+      <c r="BN4" s="93"/>
       <c r="BO4" s="66">
         <v>1</v>
       </c>
-      <c r="BP4" s="78" t="s">
+      <c r="BP4" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="BQ4" s="79"/>
+      <c r="BQ4" s="93"/>
       <c r="BR4" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:70" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
       <c r="H5" s="32" t="s">
         <v>296</v>
       </c>
@@ -23591,129 +23595,159 @@
       </c>
     </row>
     <row r="89" spans="1:70" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H89" s="84" t="s">
+      <c r="H89" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84"/>
-      <c r="K89" s="80" t="s">
+      <c r="I89" s="95"/>
+      <c r="J89" s="95"/>
+      <c r="K89" s="89" t="s">
         <v>312</v>
       </c>
-      <c r="L89" s="81"/>
-      <c r="M89" s="82"/>
-      <c r="N89" s="80" t="s">
+      <c r="L89" s="90"/>
+      <c r="M89" s="91"/>
+      <c r="N89" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="O89" s="81"/>
-      <c r="P89" s="82"/>
-      <c r="Q89" s="80" t="s">
+      <c r="O89" s="90"/>
+      <c r="P89" s="91"/>
+      <c r="Q89" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="R89" s="81"/>
-      <c r="S89" s="82"/>
-      <c r="T89" s="80" t="s">
+      <c r="R89" s="90"/>
+      <c r="S89" s="91"/>
+      <c r="T89" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="U89" s="81"/>
-      <c r="V89" s="82"/>
-      <c r="W89" s="80" t="s">
+      <c r="U89" s="90"/>
+      <c r="V89" s="91"/>
+      <c r="W89" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="X89" s="81"/>
-      <c r="Y89" s="82"/>
-      <c r="Z89" s="80" t="s">
+      <c r="X89" s="90"/>
+      <c r="Y89" s="91"/>
+      <c r="Z89" s="89" t="s">
         <v>323</v>
       </c>
-      <c r="AA89" s="81"/>
-      <c r="AB89" s="82"/>
-      <c r="AC89" s="80" t="s">
+      <c r="AA89" s="90"/>
+      <c r="AB89" s="91"/>
+      <c r="AC89" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="AD89" s="81"/>
-      <c r="AE89" s="82"/>
-      <c r="AF89" s="80" t="s">
+      <c r="AD89" s="90"/>
+      <c r="AE89" s="91"/>
+      <c r="AF89" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="AG89" s="81"/>
-      <c r="AH89" s="82"/>
-      <c r="AI89" s="80" t="s">
+      <c r="AG89" s="90"/>
+      <c r="AH89" s="91"/>
+      <c r="AI89" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="AJ89" s="81"/>
-      <c r="AK89" s="82"/>
-      <c r="AL89" s="80" t="s">
+      <c r="AJ89" s="90"/>
+      <c r="AK89" s="91"/>
+      <c r="AL89" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="AM89" s="81"/>
-      <c r="AN89" s="82"/>
-      <c r="AO89" s="80" t="s">
+      <c r="AM89" s="90"/>
+      <c r="AN89" s="91"/>
+      <c r="AO89" s="89" t="s">
         <v>375</v>
       </c>
-      <c r="AP89" s="81"/>
-      <c r="AQ89" s="82"/>
-      <c r="AR89" s="80" t="s">
+      <c r="AP89" s="90"/>
+      <c r="AQ89" s="91"/>
+      <c r="AR89" s="89" t="s">
         <v>376</v>
       </c>
-      <c r="AS89" s="81"/>
-      <c r="AT89" s="82"/>
-      <c r="AU89" s="80" t="s">
+      <c r="AS89" s="90"/>
+      <c r="AT89" s="91"/>
+      <c r="AU89" s="89" t="s">
         <v>377</v>
       </c>
-      <c r="AV89" s="81"/>
-      <c r="AW89" s="82"/>
-      <c r="AX89" s="80" t="s">
+      <c r="AV89" s="90"/>
+      <c r="AW89" s="91"/>
+      <c r="AX89" s="89" t="s">
         <v>378</v>
       </c>
-      <c r="AY89" s="81"/>
-      <c r="AZ89" s="82"/>
-      <c r="BA89" s="80" t="s">
+      <c r="AY89" s="90"/>
+      <c r="AZ89" s="91"/>
+      <c r="BA89" s="89" t="s">
         <v>379</v>
       </c>
-      <c r="BB89" s="81"/>
-      <c r="BC89" s="82"/>
-      <c r="BD89" s="80" t="s">
+      <c r="BB89" s="90"/>
+      <c r="BC89" s="91"/>
+      <c r="BD89" s="89" t="s">
         <v>380</v>
       </c>
-      <c r="BE89" s="81"/>
-      <c r="BF89" s="82"/>
-      <c r="BG89" s="80" t="s">
+      <c r="BE89" s="90"/>
+      <c r="BF89" s="91"/>
+      <c r="BG89" s="89" t="s">
         <v>381</v>
       </c>
-      <c r="BH89" s="81"/>
-      <c r="BI89" s="82"/>
-      <c r="BJ89" s="80" t="s">
+      <c r="BH89" s="90"/>
+      <c r="BI89" s="91"/>
+      <c r="BJ89" s="89" t="s">
         <v>382</v>
       </c>
-      <c r="BK89" s="81"/>
-      <c r="BL89" s="82"/>
-      <c r="BM89" s="80" t="s">
+      <c r="BK89" s="90"/>
+      <c r="BL89" s="91"/>
+      <c r="BM89" s="89" t="s">
         <v>383</v>
       </c>
-      <c r="BN89" s="81"/>
-      <c r="BO89" s="82"/>
-      <c r="BP89" s="80" t="s">
+      <c r="BN89" s="90"/>
+      <c r="BO89" s="91"/>
+      <c r="BP89" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="BQ89" s="81"/>
-      <c r="BR89" s="82"/>
+      <c r="BQ89" s="90"/>
+      <c r="BR89" s="91"/>
     </row>
   </sheetData>
   <sortState ref="A49:BR50">
     <sortCondition ref="A49"/>
   </sortState>
   <mergeCells count="64">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W89:Y89"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="Z89:AB89"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q89:S89"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T89:V89"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BP4:BQ4"/>
+    <mergeCell ref="BP89:BR89"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="BJ89:BL89"/>
+    <mergeCell ref="BM3:BO3"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BM89:BO89"/>
+    <mergeCell ref="BD3:BF3"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="BD89:BF89"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BG89:BI89"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AX89:AZ89"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BA89:BC89"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AR89:AT89"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AU89:AW89"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AI89:AK89"/>
+    <mergeCell ref="AL89:AN89"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO89:AQ89"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC89:AE89"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AF89:AH89"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H89:J89"/>
@@ -23724,48 +23758,18 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K89:M89"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC89:AE89"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AF89:AH89"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AI89:AK89"/>
-    <mergeCell ref="AL89:AN89"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO89:AQ89"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AR89:AT89"/>
-    <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AU89:AW89"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AX89:AZ89"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BA89:BC89"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="BD89:BF89"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BG89:BI89"/>
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BP4:BQ4"/>
-    <mergeCell ref="BP89:BR89"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="BJ89:BL89"/>
-    <mergeCell ref="BM3:BO3"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BM89:BO89"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q89:S89"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T89:V89"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W89:Y89"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z89:AB89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -26779,8 +26783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26790,14 +26794,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -26829,7 +26833,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="76" t="s">
         <v>143</v>
       </c>
       <c r="B5" s="7">
@@ -26859,7 +26863,7 @@
         <f>H5*F5</f>
         <v>120</v>
       </c>
-      <c r="K5" s="95"/>
+      <c r="K5" s="84"/>
       <c r="L5" t="s">
         <v>421</v>
       </c>
@@ -26895,13 +26899,13 @@
         <f t="shared" ref="I6:I10" si="1">H6*F6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="96"/>
+      <c r="K6" s="85"/>
       <c r="L6" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="77" t="s">
         <v>143</v>
       </c>
       <c r="B7" s="11">
@@ -26931,13 +26935,13 @@
         <f t="shared" si="1"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="K7" s="97"/>
+      <c r="K7" s="86"/>
       <c r="L7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="76" t="s">
         <v>264</v>
       </c>
       <c r="B8" s="7">
@@ -26967,13 +26971,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K8" s="98"/>
+      <c r="K8" s="87"/>
       <c r="L8" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="76" t="s">
         <v>264</v>
       </c>
       <c r="B9" s="7">
@@ -27003,9 +27007,13 @@
         <f t="shared" si="1"/>
         <v>3.28</v>
       </c>
+      <c r="K9" s="52"/>
+      <c r="L9" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="78" t="s">
         <v>385</v>
       </c>
       <c r="B10">
@@ -27035,7 +27043,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="83" t="s">
         <v>386</v>
       </c>
       <c r="B11">
@@ -27066,7 +27074,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="80" t="s">
         <v>286</v>
       </c>
       <c r="B12" s="7">
@@ -27156,7 +27164,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="76" t="s">
         <v>199</v>
       </c>
       <c r="B15" s="7">
@@ -27188,7 +27196,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="76" t="s">
         <v>199</v>
       </c>
       <c r="B16" s="7">
@@ -27220,7 +27228,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="76" t="s">
         <v>199</v>
       </c>
       <c r="B17" s="7">
@@ -27253,7 +27261,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="76" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="7">
@@ -27286,7 +27294,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="76" t="s">
         <v>199</v>
       </c>
       <c r="B19" s="7">
@@ -27318,7 +27326,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="76" t="s">
         <v>214</v>
       </c>
       <c r="B20" s="7">
@@ -27350,7 +27358,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="76" t="s">
         <v>213</v>
       </c>
       <c r="B21" s="7">
@@ -27383,7 +27391,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="76" t="s">
         <v>230</v>
       </c>
       <c r="B22" s="7">
@@ -27415,7 +27423,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="76" t="s">
         <v>230</v>
       </c>
       <c r="B23" s="7">
@@ -27447,7 +27455,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="76" t="s">
         <v>233</v>
       </c>
       <c r="B24" s="7">
@@ -27479,7 +27487,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="76" t="s">
         <v>233</v>
       </c>
       <c r="B25" s="7">
@@ -27511,7 +27519,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="76" t="s">
         <v>229</v>
       </c>
       <c r="B26" s="7">
@@ -27543,7 +27551,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="76" t="s">
         <v>229</v>
       </c>
       <c r="B27" s="7">
@@ -27607,7 +27615,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="76" t="s">
         <v>229</v>
       </c>
       <c r="B29" s="7">
@@ -27667,7 +27675,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="76" t="s">
         <v>229</v>
       </c>
       <c r="B31" s="7">
@@ -27699,7 +27707,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="76" t="s">
         <v>229</v>
       </c>
       <c r="B32" s="7">
@@ -27987,7 +27995,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="76" t="s">
         <v>247</v>
       </c>
       <c r="B41" s="7">
@@ -28019,7 +28027,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="76" t="s">
         <v>252</v>
       </c>
       <c r="B42" s="7">
@@ -28052,7 +28060,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="76" t="s">
         <v>253</v>
       </c>
       <c r="B43" s="7">
@@ -28085,7 +28093,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="76" t="s">
         <v>259</v>
       </c>
       <c r="B44" s="7">
@@ -28117,7 +28125,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="76" t="s">
         <v>243</v>
       </c>
       <c r="B45" s="7">
@@ -28149,7 +28157,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="76" t="s">
         <v>257</v>
       </c>
       <c r="B46" s="7">
@@ -28181,7 +28189,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="83" t="s">
         <v>405</v>
       </c>
       <c r="B47">
@@ -28213,7 +28221,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="83" t="s">
         <v>401</v>
       </c>
       <c r="B48">
@@ -28245,7 +28253,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="76" t="s">
         <v>87</v>
       </c>
       <c r="B49" s="7">
@@ -28331,7 +28339,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="76" t="s">
         <v>221</v>
       </c>
       <c r="B52" s="7">
@@ -28363,7 +28371,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="76" t="s">
         <v>221</v>
       </c>
       <c r="B53" s="7">
@@ -28395,7 +28403,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="88" t="s">
+      <c r="A54" s="77" t="s">
         <v>277</v>
       </c>
       <c r="B54" s="11">
@@ -28427,7 +28435,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="77" t="s">
         <v>282</v>
       </c>
       <c r="B55" s="11">
@@ -28459,7 +28467,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="76" t="s">
         <v>270</v>
       </c>
       <c r="B56" s="7">
@@ -28491,7 +28499,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="76" t="s">
         <v>267</v>
       </c>
       <c r="B57" s="7">
@@ -28523,7 +28531,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="87" t="s">
+      <c r="A58" s="76" t="s">
         <v>63</v>
       </c>
       <c r="B58" s="7">
@@ -28555,7 +28563,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="77" t="s">
         <v>290</v>
       </c>
       <c r="B59" s="11">
@@ -28613,7 +28621,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="86" t="s">
+      <c r="A61" s="75" t="s">
         <v>219</v>
       </c>
       <c r="B61" s="7">
@@ -28646,7 +28654,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="87" t="s">
+      <c r="A62" s="76" t="s">
         <v>219</v>
       </c>
       <c r="B62" s="21">
@@ -28775,7 +28783,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="94" t="s">
+      <c r="A66" s="83" t="s">
         <v>219</v>
       </c>
       <c r="B66" s="21">
@@ -28808,7 +28816,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="90" t="s">
+      <c r="A67" s="100" t="s">
         <v>219</v>
       </c>
       <c r="B67" s="21">
@@ -28872,7 +28880,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="79" t="s">
         <v>219</v>
       </c>
       <c r="B69" s="21">
@@ -28938,7 +28946,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="90" t="s">
+      <c r="A71" s="79" t="s">
         <v>219</v>
       </c>
       <c r="B71" s="21">
@@ -28971,7 +28979,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="94" t="s">
+      <c r="A72" s="83" t="s">
         <v>219</v>
       </c>
       <c r="B72" s="21">
@@ -29100,7 +29108,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="94" t="s">
+      <c r="A76" s="83" t="s">
         <v>418</v>
       </c>
       <c r="B76" s="21">
@@ -29137,7 +29145,7 @@
         <v>285</v>
       </c>
       <c r="B77" s="22"/>
-      <c r="C77" s="99"/>
+      <c r="C77" s="88"/>
       <c r="D77" s="22"/>
       <c r="E77" s="33">
         <v>1</v>
@@ -29159,7 +29167,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="91" t="s">
+      <c r="A78" s="80" t="s">
         <v>283</v>
       </c>
       <c r="B78" s="21">
@@ -29191,7 +29199,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="87" t="s">
+      <c r="A79" s="76" t="s">
         <v>125</v>
       </c>
       <c r="B79" s="72">
@@ -29223,7 +29231,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="87" t="s">
+      <c r="A80" s="76" t="s">
         <v>19</v>
       </c>
       <c r="B80" s="72">
@@ -29255,7 +29263,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="88" t="s">
+      <c r="A81" s="77" t="s">
         <v>196</v>
       </c>
       <c r="B81" s="11">
@@ -29319,7 +29327,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="93" t="s">
+      <c r="A83" s="82" t="s">
         <v>399</v>
       </c>
       <c r="B83" s="21">
@@ -29349,7 +29357,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="92" t="s">
+      <c r="A84" s="81" t="s">
         <v>407</v>
       </c>
       <c r="B84" s="15">
